--- a/Onboarding Documents/Error and warning codes.xlsx
+++ b/Onboarding Documents/Error and warning codes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EMHA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skat.sharepoint.com/sites/proj_4929/Delte dokumenter/General/R1.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5210483F-ED55-4B6D-9C2F-A8B1A45F6BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{5210483F-ED55-4B6D-9C2F-A8B1A45F6BC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{68BEDA70-18AA-46E8-ADFD-D8577A89A955}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="510" windowWidth="26280" windowHeight="15375" xr2:uid="{B85A02ED-9ABC-4F63-82FC-39E5924E62E4}"/>
+    <workbookView xWindow="-13740" yWindow="-16410" windowWidth="21600" windowHeight="11385" xr2:uid="{B85A02ED-9ABC-4F63-82FC-39E5924E62E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="1001">
   <si>
     <t>Error code</t>
   </si>
@@ -416,9 +414,6 @@
   </si>
   <si>
     <t>DK10107</t>
-  </si>
-  <si>
-    <t>Missing Document TYPE 12 03 002 000</t>
   </si>
   <si>
     <t>DK1011</t>
@@ -1251,9 +1246,6 @@
     <t>Missing or Invalid Procedure code</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>DK11047</t>
   </si>
   <si>
@@ -2831,13 +2823,229 @@
   </si>
   <si>
     <t>Quota Critical</t>
+  </si>
+  <si>
+    <t>DK6000</t>
+  </si>
+  <si>
+    <t>DK6001</t>
+  </si>
+  <si>
+    <t>DK6002</t>
+  </si>
+  <si>
+    <t>DK6003</t>
+  </si>
+  <si>
+    <t>Error in 'Exporter identification No' (13 01 017 000), the number does not exist or is not valid.</t>
+  </si>
+  <si>
+    <t>Error in 'Exporter identification No.' (13 01 017 000), the Exporter must be registered as an exporter in DK.</t>
+  </si>
+  <si>
+    <t>Error in 'Declarant identification No.' (13 05 017 000), the Declarant must be registered as an exporter in DK.</t>
+  </si>
+  <si>
+    <t>Error in 'Representative identification No.' (13 06 017 000), the Representative must be registered as an exporter in DK.</t>
+  </si>
+  <si>
+    <t>Fejl i 'Eksportør identifikations nummer' (13 01 017 000), nummeret eksisterer ikke eller er ikke validt.</t>
+  </si>
+  <si>
+    <t>Fejl i 'Eksportør identifikations nummer' (13 01 017 000), eksportøren skal være eksportørregistreret i Danmark.</t>
+  </si>
+  <si>
+    <t>Fejl i 'Deklarant identifikations nummer' (13 05 017 000), deklaranten skal være eksportørregistreret i Danmark.</t>
+  </si>
+  <si>
+    <t>Fejl i 'Repræsentant identifikations nummer' (13 06 017 000), eksportøren skal være eksportørregistreret i Danmark.</t>
+  </si>
+  <si>
+    <t>Missing Document TYPE 12 03 002 000 (I FORHOLD TIL TARIFFEN)</t>
+  </si>
+  <si>
+    <t>DK4002</t>
+  </si>
+  <si>
+    <t>DK4003</t>
+  </si>
+  <si>
+    <t>DK4004</t>
+  </si>
+  <si>
+    <t>DK4005</t>
+  </si>
+  <si>
+    <t>The amendment application contains changes to data elements in 5/23 // 16 15 which can not be changed in relation to a conversion of the declaration.</t>
+  </si>
+  <si>
+    <t>The conversion of customs office id of data element 5/23 // 16 15 is not valid. Either the previous fields have not been deleted or the information has not been correctly specified in the customs office id field.</t>
+  </si>
+  <si>
+    <t>The conversion of UN/LOCODE of data element 5/23 // 16 15 is not valid. Either the previous fields have not been deleted or the information has not been correctly specified in the location id field.</t>
+  </si>
+  <si>
+    <t>The conversion of authorisation number of data element 5/23 // 16 15 is not valid. Either the previous fields have not been deleted or the information has not been correctly specified in the authorisation reference number field.</t>
+  </si>
+  <si>
+    <t>Ændringsanmodningen indeholder ændringer til data elementer i 5/23 // 16 15, som ikke må ændres i forbindelse med en konvertering af angivelsen.</t>
+  </si>
+  <si>
+    <t>Konverteringen af toldstedskoden i data element 5/23 // 16 15 er ikke gyldig. Enten er de tidligere felter ikke slettet eller informationen fra felterne er ikke korrekt angivet i toldstedskode-feltet.</t>
+  </si>
+  <si>
+    <t>Konverteringen af UN/LOCODE i data element 5/23 // 16 15 er ikke gyldig. Enten er de tidligere felter ikke slettet eller informationen fra felterne er ikke korrekt angivet i lokations id-feltet.</t>
+  </si>
+  <si>
+    <t>Konverteringen af autorisationsnummer i data element 5/23 // 16 15 er ikke gyldig. Enten er de tidligere felter ikke slettet eller informationen fra felterne er ikke korrekt angivet i autorisationsnummer-feltet.</t>
+  </si>
+  <si>
+    <t>DK1055</t>
+  </si>
+  <si>
+    <t>DK1056</t>
+  </si>
+  <si>
+    <t>DKW1055</t>
+  </si>
+  <si>
+    <t>DKW1056</t>
+  </si>
+  <si>
+    <t>Error in "Declarant Identification no" (3/18), when "Additional procedure" (1/11) is F49 then the "declarant identification no" (3/18) must be DK09999981 (private)</t>
+  </si>
+  <si>
+    <t>Fejl i ”klarerens identifikations nummer” (3/18), når "supplerende procedure" (1/11) er angivet med F49, kan klarerens identifikationsnummer kun være DK09999981 (privat)</t>
+  </si>
+  <si>
+    <t>Error in "Additional fiscal references" (3/40), when "Additional procedure" (1/11) = F49, then "Role code" must be "FR4".</t>
+  </si>
+  <si>
+    <t>Fejl i "Supplerende skattereference, Rollekode" (3/40), når supplerende procedure er angivet med "F49", skal rollekode i supplerende skattereference være "FR4"</t>
+  </si>
+  <si>
+    <t>DK2161</t>
+  </si>
+  <si>
+    <t>Only additional messages of types COR, GPR, I2GPR, INV and INV4C are allowed to be submitted for H7 declarations</t>
+  </si>
+  <si>
+    <t>Kun supplerende meddelelser af typerne COR, GPR, I2GPR, INV og INV4C kan benyttes for H7 deklarationer</t>
+  </si>
+  <si>
+    <t>DK2030</t>
+  </si>
+  <si>
+    <t>DK2031</t>
+  </si>
+  <si>
+    <t>DK2032</t>
+  </si>
+  <si>
+    <t>DK1103</t>
+  </si>
+  <si>
+    <t>Error in 'Transport document type' (12 05 002 000), document type does not exist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fejl i 'Transport dokument type' (12 05 002 000), den dokument type som er angivet findes ikke. </t>
+  </si>
+  <si>
+    <t>Error: "Additional supply chain actor" (13 14 031 000), the corresponding identifications number (13 14 017 000) does not exist or is not valid.</t>
+  </si>
+  <si>
+    <t>Fejl i "Yderligere aktør i forsyningskæden" ( 13 14 000 000), Identifkationsnummer (13 14 017 000) er forkert eller er ikke validt.</t>
+  </si>
+  <si>
+    <t>Error in "Authorisation refence number" (12 12 001 000) the authorisation does not exist or is not valid.</t>
+  </si>
+  <si>
+    <t>Fejl i "Bevillingsnummer" (12 12 001 000) bevillingsnummer eksisterer ikke eller er valid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error in "Supporting document type" (12 03 002 000), the REX number does not exist or is not valid </t>
+  </si>
+  <si>
+    <t>Fejl i "Vedlagt document type" (12 03 002 000). REX-nummer, der henvises til eksisterer ikke eller er ikke validt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manglende eller ikke gyldig procedurekode.</t>
+  </si>
+  <si>
+    <t>UDGÅET</t>
+  </si>
+  <si>
+    <t>DKW2030</t>
+  </si>
+  <si>
+    <t>DKW2031</t>
+  </si>
+  <si>
+    <t>DKW2032</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>DK1200</t>
+  </si>
+  <si>
+    <t>If additional procedure=F16 then Country of dispatch and Country of Origin must be AD (Andorra), SM (San Marino) or TR (Turkey).</t>
+  </si>
+  <si>
+    <t>Hvis supplerende procedure=F16, så skal forsendelseslandet og oprindelseslandet være AD (Andorra), SM (San Marino) eller TR (Tyrkiet).</t>
+  </si>
+  <si>
+    <t>DK1210</t>
+  </si>
+  <si>
+    <t>DK1211</t>
+  </si>
+  <si>
+    <t>DK1212</t>
+  </si>
+  <si>
+    <t>DK1213</t>
+  </si>
+  <si>
+    <t>DK1214</t>
+  </si>
+  <si>
+    <t>Error in 'Previous Document Type' (12 01 002 000), this type of document is not allowed</t>
+  </si>
+  <si>
+    <t>Error in 'Supporting Document Type' (12 03 002 000), this type of document is not allowed</t>
+  </si>
+  <si>
+    <t>Error in 'Additional References Type' (12 04 002 000), this type of document is not allowed</t>
+  </si>
+  <si>
+    <t>Error in 'Transport Documents Type' (12 05 002 000), this type of document is not allowed</t>
+  </si>
+  <si>
+    <t>Error in 'Authorization Type' (12 12 002 000), this type of document is not allowed</t>
+  </si>
+  <si>
+    <t>Fejl i 'Tidligere Dokument Type' (12 01 002 000), denne dokument type er ikke tilladt</t>
+  </si>
+  <si>
+    <t>Fejl i 'Vedlagt Dokument Type' (12 03 002 000), dennedokument type er ikke tilladt</t>
+  </si>
+  <si>
+    <t>Fejl i 'Yderlig Reference Type' (12 04 002 000), denne dokument type er ikke tilladt</t>
+  </si>
+  <si>
+    <t>Fejl i 'Transport Dokument Type' (12 05 002 000), denne dokument type er ikke tilladt</t>
+  </si>
+  <si>
+    <t>Fejl i 'Authorisation Type' (12 12 002 000), denne dokument type er ikke tilladt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2902,8 +3110,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2922,8 +3147,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2946,11 +3177,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3039,20 +3342,98 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3368,18 +3749,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C124F3A-70A1-4C39-B88D-70E9954F3B3C}">
-  <dimension ref="A1:D318"/>
+  <dimension ref="A1:F344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="47.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" style="4" customWidth="1"/>
     <col min="5" max="11" width="9.140625" style="4"/>
     <col min="12" max="12" width="45.42578125" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="4"/>
@@ -3909,3172 +4290,3782 @@
       </c>
       <c r="D54" s="10"/>
     </row>
-    <row r="55" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="12" t="s">
-        <v>127</v>
+        <v>941</v>
       </c>
       <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="C56" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="C57" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="D57" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D78" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D80" s="10" t="s">
+    </row>
+    <row r="81" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D81" s="8" t="s">
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D82" s="10" t="s">
+    </row>
+    <row r="83" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D83" s="8" t="s">
+    </row>
+    <row r="84" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
-        <v>213</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D84" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D84" s="10" t="s">
+    </row>
+    <row r="85" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
+      <c r="B85" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="C85" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="D85" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D85" s="8" t="s">
+    </row>
+    <row r="86" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+    </row>
+    <row r="87" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="B87" s="46" t="s">
+        <v>957</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>960</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+      <c r="B88" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="C88" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="D88" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D86" s="10" t="s">
+    </row>
+    <row r="89" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
+      <c r="B89" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="C89" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="D89" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="D87" s="14" t="s">
+    </row>
+    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="B90" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="C90" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="D90" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="D88" s="10" t="s">
+    </row>
+    <row r="91" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+      <c r="B91" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="C91" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="D91" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D89" s="8" t="s">
+    </row>
+    <row r="92" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+      <c r="B92" s="9"/>
+      <c r="C92" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="13" t="s">
+      <c r="D92" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="D90" s="10" t="s">
+    </row>
+    <row r="93" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+      <c r="B93" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="C93" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="D93" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D91" s="8" t="s">
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+      <c r="B94" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="C94" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="D94" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="D92" s="11" t="s">
+    </row>
+    <row r="95" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+      <c r="B95" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="C95" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="D95" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="D93" s="16" t="s">
+    </row>
+    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>257</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>259</v>
+        <v>251</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="8" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>265</v>
+        <v>257</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D101" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="D99" s="17" t="s">
+    </row>
+    <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
+      <c r="B102" s="9"/>
+      <c r="C102" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="18" t="s">
+      <c r="D102" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="D100" s="10" t="s">
+    </row>
+    <row r="103" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
+      <c r="B103" s="7"/>
+      <c r="C103" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="19" t="s">
+      <c r="D103" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D101" s="8" t="s">
+    </row>
+    <row r="104" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
+      <c r="B104" s="9"/>
+      <c r="C104" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="20" t="s">
+      <c r="D104" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D102" s="10" t="s">
+    </row>
+    <row r="105" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B104" s="9"/>
-      <c r="C104" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="10" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="8" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="10" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="8" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>300</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="B110" s="9"/>
       <c r="C110" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="C113" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="D113" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D111" s="8" t="s">
+    </row>
+    <row r="114" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
+      <c r="B114" s="9"/>
+      <c r="C114" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B112" s="9"/>
-      <c r="C112" s="10" t="s">
+      <c r="D114" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="D112" s="10" t="s">
+    </row>
+    <row r="115" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
+      <c r="B115" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="C115" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="D115" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D113" s="8" t="s">
+    </row>
+    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
+      <c r="B116" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="C116" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="D116" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D114" s="10" t="s">
+    </row>
+    <row r="117" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
+      <c r="B117" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="C117" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="D117" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B121" s="7"/>
+        <v>333</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="C121" s="8" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="8" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="B124" s="9"/>
-      <c r="C124" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="D124" s="22" t="s">
-        <v>354</v>
+        <v>344</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="8" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B126" s="9"/>
-      <c r="C126" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="C126" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="D126" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="8" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="10" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="8" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="10" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="8" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="10" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="8" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B134" s="9"/>
       <c r="C134" s="10" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="8" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B136" s="9"/>
       <c r="C136" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="137" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B137" s="7"/>
       <c r="C137" s="8" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B138" s="9"/>
       <c r="C138" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="D138" s="10"/>
-    </row>
-    <row r="139" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="8" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B140" s="9"/>
       <c r="C140" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>401</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="D140" s="10"/>
     </row>
     <row r="141" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="8" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="23" t="s">
-        <v>405</v>
-      </c>
-      <c r="B142" s="23"/>
-      <c r="C142" s="13" t="s">
-        <v>406</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B142" s="9"/>
+      <c r="C142" s="10" t="s">
+        <v>399</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c r="C143" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c r="C144" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="B145" s="23"/>
+      <c r="C145" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c r="C146" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D146" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="B143" s="7"/>
-      <c r="C143" s="12" t="s">
+    </row>
+    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="D143" s="12" t="s">
+      <c r="B147" s="9"/>
+      <c r="C147" s="13" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="9" t="s">
+      <c r="D147" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="B144" s="9"/>
-      <c r="C144" s="13" t="s">
+    </row>
+    <row r="148" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="D144" s="10" t="s">
+      <c r="B148" s="7"/>
+      <c r="C148" s="8" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
+      <c r="D148" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="B145" s="7"/>
-      <c r="C145" s="8" t="s">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="B149" s="9"/>
+      <c r="C149" s="24" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="9" t="s">
+      <c r="D149" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B146" s="9"/>
-      <c r="C146" s="24" t="s">
+    </row>
+    <row r="150" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="B150" s="7"/>
+      <c r="C150" s="25" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="7" t="s">
+      <c r="D150" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B147" s="7"/>
-      <c r="C147" s="25" t="s">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B151" s="9"/>
+      <c r="C151" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="D151" s="10" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="B148" s="9"/>
-      <c r="C148" s="10" t="s">
+    <row r="152" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="D148" s="10" t="s">
+      <c r="B152" s="7"/>
+      <c r="C152" s="8" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="7" t="s">
+      <c r="D152" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="B149" s="7"/>
-      <c r="C149" s="8" t="s">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="B153" s="9"/>
+      <c r="C153" s="26" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="9" t="s">
+      <c r="D153" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B150" s="9"/>
-      <c r="C150" s="26" t="s">
+      <c r="B154" s="7"/>
+      <c r="C154" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="D150" s="10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="7" t="s">
+      <c r="D154" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="B151" s="7"/>
-      <c r="C151" s="8" t="s">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="B155" s="9"/>
+      <c r="C155" s="10" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="9" t="s">
+      <c r="D155" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="B152" s="9"/>
-      <c r="C152" s="10" t="s">
+    </row>
+    <row r="156" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="D152" s="10" t="s">
+      <c r="B156" s="7"/>
+      <c r="C156" s="27" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
+      <c r="D156" s="8"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="B153" s="7"/>
-      <c r="C153" s="27" t="s">
+      <c r="B157" s="9"/>
+      <c r="C157" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="D153" s="8"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="9" t="s">
+      <c r="D157" s="10"/>
+    </row>
+    <row r="158" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B154" s="9"/>
-      <c r="C154" s="10" t="s">
+      <c r="B158" s="7"/>
+      <c r="C158" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="D154" s="10"/>
-    </row>
-    <row r="155" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="7" t="s">
+      <c r="D158" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="B155" s="7"/>
-      <c r="C155" s="8" t="s">
+      <c r="B159" s="9"/>
+      <c r="C159" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="D155" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="9" t="s">
+      <c r="D159" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="B156" s="9"/>
-      <c r="C156" s="10" t="s">
+    </row>
+    <row r="160" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="D156" s="10" t="s">
+      <c r="B160" s="7"/>
+      <c r="C160" s="8" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="7" t="s">
+      <c r="D160" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="B157" s="7"/>
-      <c r="C157" s="8" t="s">
+    </row>
+    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="B161" s="9"/>
+      <c r="C161" s="10" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="9" t="s">
+      <c r="D161" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B158" s="9"/>
-      <c r="C158" s="10" t="s">
+    </row>
+    <row r="162" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="D158" s="10" t="s">
+      <c r="B162" s="7"/>
+      <c r="C162" s="27" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="7" t="s">
+      <c r="D162" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="B159" s="7"/>
-      <c r="C159" s="27" t="s">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="B163" s="9"/>
+      <c r="C163" s="10" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="9" t="s">
+      <c r="D163" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="B160" s="9"/>
-      <c r="C160" s="10" t="s">
+    </row>
+    <row r="164" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="B164" s="7"/>
+      <c r="C164" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="32" t="s">
+        <v>986</v>
+      </c>
+      <c r="B165" s="9"/>
+      <c r="C165" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="D165" s="34" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="B166" s="7"/>
+      <c r="C166" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="32" t="s">
+        <v>988</v>
+      </c>
+      <c r="B167" s="9"/>
+      <c r="C167" s="34" t="s">
+        <v>993</v>
+      </c>
+      <c r="D167" s="34" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="B168" s="7"/>
+      <c r="C168" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="60" t="s">
+        <v>990</v>
+      </c>
+      <c r="B169" s="9"/>
+      <c r="C169" s="34" t="s">
+        <v>995</v>
+      </c>
+      <c r="D169" s="34" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="D160" s="10" t="s">
+      <c r="B170" s="7"/>
+      <c r="C170" s="8" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A161" s="7" t="s">
+      <c r="D170" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B161" s="7"/>
-      <c r="C161" s="12" t="s">
+    </row>
+    <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A171" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="B171" s="32" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="28" t="s">
+      <c r="C171" s="39" t="s">
         <v>460</v>
       </c>
-      <c r="B162" s="28" t="s">
+      <c r="D171" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="C162" s="13" t="s">
+    </row>
+    <row r="172" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="D162" s="10" t="s">
+      <c r="B172" s="38" t="s">
+        <v>978</v>
+      </c>
+      <c r="C172" s="50" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A163" s="7" t="s">
+      <c r="D172" s="51" t="s">
         <v>464</v>
       </c>
-      <c r="B163" s="7"/>
-      <c r="C163" s="12" t="s">
+    </row>
+    <row r="173" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="B173" s="32" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A164" s="9" t="s">
+      <c r="C173" s="39" t="s">
         <v>467</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="D173" s="34" t="s">
         <v>468</v>
       </c>
-      <c r="C164" s="13" t="s">
+    </row>
+    <row r="174" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="D164" s="10" t="s">
+      <c r="B174" s="32"/>
+      <c r="C174" s="39" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="7" t="s">
+      <c r="D174" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="B165" s="7"/>
-      <c r="C165" s="12" t="s">
+    </row>
+    <row r="175" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="B175" s="32" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="9" t="s">
+      <c r="C175" s="34" t="s">
         <v>474</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="D175" s="34" t="s">
         <v>475</v>
       </c>
-      <c r="C166" s="10" t="s">
+    </row>
+    <row r="176" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D166" s="10" t="s">
+      <c r="B176" s="32" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A167" s="7" t="s">
+      <c r="C176" s="39" t="s">
         <v>478</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="D176" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="C167" s="12" t="s">
+    </row>
+    <row r="177" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="D167" s="8" t="s">
+      <c r="B177" s="32" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A168" s="9" t="s">
+      <c r="C177" s="34" t="s">
         <v>482</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="D177" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C168" s="10" t="s">
+    </row>
+    <row r="178" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="D168" s="10" t="s">
+      <c r="B178" s="32" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A169" s="7" t="s">
+      <c r="C178" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="D178" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="C169" s="8" t="s">
+    </row>
+    <row r="179" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="D169" s="8" t="s">
+      <c r="B179" s="32" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A170" s="9" t="s">
+      <c r="C179" s="34" t="s">
         <v>490</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="D179" s="34" t="s">
         <v>491</v>
       </c>
-      <c r="C170" s="10" t="s">
+    </row>
+    <row r="180" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="D170" s="10" t="s">
+      <c r="B180" s="32" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="7" t="s">
+      <c r="C180" s="34" t="s">
         <v>494</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="D180" s="34" t="s">
         <v>495</v>
       </c>
-      <c r="C171" s="8" t="s">
+    </row>
+    <row r="181" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="D171" s="8" t="s">
+      <c r="B181" s="32" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="9" t="s">
+      <c r="C181" s="37" t="s">
         <v>498</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="D181" s="34" t="s">
         <v>499</v>
       </c>
-      <c r="C172" s="10" t="s">
+    </row>
+    <row r="182" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="D172" s="10" t="s">
+      <c r="B182" s="32" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="7" t="s">
+      <c r="C182" s="37" t="s">
         <v>502</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="D182" s="34" t="s">
         <v>503</v>
       </c>
-      <c r="C173" s="8" t="s">
+    </row>
+    <row r="183" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="D173" s="8" t="s">
+      <c r="B183" s="57"/>
+      <c r="C183" s="37" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="9" t="s">
+      <c r="D183" s="34" t="s">
         <v>506</v>
       </c>
-      <c r="B174" s="9"/>
-      <c r="C174" s="10" t="s">
+    </row>
+    <row r="184" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="D174" s="10" t="s">
+      <c r="B184" s="57"/>
+      <c r="C184" s="37" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="7" t="s">
+      <c r="D184" s="34" t="s">
         <v>509</v>
       </c>
-      <c r="B175" s="7"/>
-      <c r="C175" s="8" t="s">
+    </row>
+    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="D175" s="8" t="s">
+      <c r="B185" s="57"/>
+      <c r="C185" s="37" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="9" t="s">
+      <c r="D185" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="B176" s="9"/>
-      <c r="C176" s="10" t="s">
+    </row>
+    <row r="186" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="D176" s="10" t="s">
+      <c r="B186" s="57"/>
+      <c r="C186" s="52" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="7" t="s">
+      <c r="D186" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="B177" s="7"/>
-      <c r="C177" s="8" t="s">
+    </row>
+    <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="D177" s="8" t="s">
+      <c r="B187" s="57"/>
+      <c r="C187" s="52" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="9" t="s">
+      <c r="D187" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="B178" s="9"/>
-      <c r="C178" s="10" t="s">
+    </row>
+    <row r="188" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A188" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="D178" s="10" t="s">
+      <c r="B188" s="57"/>
+      <c r="C188" s="52" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A179" s="7" t="s">
+      <c r="D188" s="34" t="s">
         <v>521</v>
       </c>
-      <c r="B179" s="7"/>
-      <c r="C179" s="8" t="s">
+    </row>
+    <row r="189" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="D179" s="8" t="s">
+      <c r="B189" s="57" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="9" t="s">
+      <c r="C189" s="36" t="s">
         <v>524</v>
       </c>
-      <c r="B180" s="29" t="s">
+      <c r="D189" s="34" t="s">
         <v>525</v>
       </c>
-      <c r="C180" s="10" t="s">
+    </row>
+    <row r="190" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="D180" s="10" t="s">
+      <c r="B190" s="32" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="7" t="s">
+      <c r="C190" s="36" t="s">
         <v>528</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="D190" s="34" t="s">
         <v>529</v>
       </c>
-      <c r="C181" s="8" t="s">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="D181" s="8" t="s">
+      <c r="B191" s="32"/>
+      <c r="C191" s="36" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="9" t="s">
+      <c r="D191" s="34" t="s">
         <v>532</v>
       </c>
-      <c r="B182" s="9"/>
-      <c r="C182" s="10" t="s">
+    </row>
+    <row r="192" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D182" s="10" t="s">
+      <c r="B192" s="32"/>
+      <c r="C192" s="53" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="7" t="s">
+      <c r="D192" s="34" t="s">
         <v>535</v>
       </c>
-      <c r="B183" s="7"/>
-      <c r="C183" s="30" t="s">
+    </row>
+    <row r="193" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A193" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="D183" s="8" t="s">
+      <c r="B193" s="32"/>
+      <c r="C193" s="36" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A184" s="9" t="s">
+      <c r="D193" s="34" t="s">
         <v>538</v>
       </c>
-      <c r="B184" s="9"/>
-      <c r="C184" s="10" t="s">
+    </row>
+    <row r="194" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A194" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="D184" s="10" t="s">
+      <c r="B194" s="32"/>
+      <c r="C194" s="36" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A185" s="7" t="s">
+      <c r="D194" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="B185" s="7"/>
-      <c r="C185" s="8" t="s">
+    </row>
+    <row r="195" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A195" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="D185" s="8" t="s">
+      <c r="B195" s="32"/>
+      <c r="C195" s="34" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A186" s="9" t="s">
+      <c r="D195" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="B186" s="9"/>
-      <c r="C186" s="10" t="s">
+    </row>
+    <row r="196" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A196" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="D186" s="10" t="s">
+      <c r="B196" s="32"/>
+      <c r="C196" s="34" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A187" s="15" t="s">
+      <c r="D196" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="B187" s="15"/>
-      <c r="C187" s="8" t="s">
+    </row>
+    <row r="197" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A197" s="28" t="s">
         <v>548</v>
       </c>
-      <c r="D187" s="8" t="s">
+      <c r="B197" s="32"/>
+      <c r="C197" s="36" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="28" t="s">
+      <c r="D197" s="34" t="s">
         <v>550</v>
       </c>
-      <c r="B188" s="28"/>
-      <c r="C188" s="10" t="s">
+    </row>
+    <row r="198" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="D188" s="10" t="s">
+      <c r="B198" s="32"/>
+      <c r="C198" s="36" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="7" t="s">
+      <c r="D198" s="34" t="s">
         <v>553</v>
       </c>
-      <c r="B189" s="7"/>
-      <c r="C189" s="8" t="s">
+    </row>
+    <row r="199" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="D189" s="8" t="s">
+      <c r="B199" s="32"/>
+      <c r="C199" s="36" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="9" t="s">
+      <c r="D199" s="34" t="s">
         <v>556</v>
       </c>
-      <c r="B190" s="9"/>
-      <c r="C190" s="10" t="s">
+    </row>
+    <row r="200" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A200" s="32" t="s">
+        <v>965</v>
+      </c>
+      <c r="B200" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="C200" s="54" t="s">
+        <v>971</v>
+      </c>
+      <c r="D200" s="34" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A201" s="32" t="s">
+        <v>966</v>
+      </c>
+      <c r="B201" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="C201" s="36" t="s">
+        <v>973</v>
+      </c>
+      <c r="D201" s="34" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A202" s="49" t="s">
+        <v>967</v>
+      </c>
+      <c r="B202" s="32" t="s">
+        <v>981</v>
+      </c>
+      <c r="C202" s="55" t="s">
+        <v>975</v>
+      </c>
+      <c r="D202" s="56" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="D190" s="10" t="s">
+      <c r="B203" s="32"/>
+      <c r="C203" s="36" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" s="7" t="s">
+      <c r="D203" s="34" t="s">
         <v>559</v>
       </c>
-      <c r="B191" s="7"/>
-      <c r="C191" s="8" t="s">
+    </row>
+    <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="D191" s="8" t="s">
+      <c r="B204" s="32"/>
+      <c r="C204" s="36" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="9" t="s">
+      <c r="D204" s="34" t="s">
         <v>562</v>
       </c>
-      <c r="B192" s="9"/>
-      <c r="C192" s="10" t="s">
+    </row>
+    <row r="205" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="D192" s="10" t="s">
+      <c r="B205" s="32"/>
+      <c r="C205" s="36" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="7" t="s">
+      <c r="D205" s="34" t="s">
         <v>565</v>
       </c>
-      <c r="B193" s="7"/>
-      <c r="C193" s="8" t="s">
+    </row>
+    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="D193" s="8" t="s">
+      <c r="B206" s="32"/>
+      <c r="C206" s="36" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="9" t="s">
+      <c r="D206" s="34" t="s">
         <v>568</v>
       </c>
-      <c r="B194" s="9"/>
-      <c r="C194" s="10" t="s">
+    </row>
+    <row r="207" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A207" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="D194" s="10" t="s">
+      <c r="B207" s="32"/>
+      <c r="C207" s="36" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="7" t="s">
+      <c r="D207" s="34" t="s">
         <v>571</v>
       </c>
-      <c r="B195" s="7"/>
-      <c r="C195" s="8" t="s">
+    </row>
+    <row r="208" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="D195" s="8" t="s">
+      <c r="B208" s="32"/>
+      <c r="C208" s="36" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A196" s="9" t="s">
+      <c r="D208" s="34" t="s">
         <v>574</v>
       </c>
-      <c r="B196" s="9"/>
-      <c r="C196" s="10" t="s">
+    </row>
+    <row r="209" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="D196" s="10" t="s">
+      <c r="B209" s="32"/>
+      <c r="C209" s="36" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A197" s="7" t="s">
+      <c r="D209" s="34" t="s">
         <v>577</v>
       </c>
-      <c r="B197" s="7"/>
-      <c r="C197" s="8" t="s">
+    </row>
+    <row r="210" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="D197" s="8" t="s">
+      <c r="B210" s="32" t="s">
+        <v>982</v>
+      </c>
+      <c r="C210" s="36" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="9" t="s">
+      <c r="D210" s="34" t="s">
         <v>580</v>
       </c>
-      <c r="B198" s="9"/>
-      <c r="C198" s="10" t="s">
+    </row>
+    <row r="211" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="D198" s="10" t="s">
+      <c r="B211" s="32" t="s">
+        <v>982</v>
+      </c>
+      <c r="C211" s="36" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="7" t="s">
+      <c r="D211" s="34" t="s">
         <v>583</v>
       </c>
-      <c r="B199" s="7"/>
-      <c r="C199" s="8" t="s">
+    </row>
+    <row r="212" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="D199" s="8" t="s">
+      <c r="B212" s="32" t="s">
+        <v>982</v>
+      </c>
+      <c r="C212" s="36" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A200" s="9" t="s">
+      <c r="D212" s="34" t="s">
         <v>586</v>
       </c>
-      <c r="B200" s="9"/>
-      <c r="C200" s="10" t="s">
+    </row>
+    <row r="213" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A213" s="32" t="s">
+        <v>962</v>
+      </c>
+      <c r="B213" s="58"/>
+      <c r="C213" s="36" t="s">
+        <v>963</v>
+      </c>
+      <c r="D213" s="48" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A214" s="30" t="s">
         <v>587</v>
       </c>
-      <c r="D200" s="10" t="s">
+      <c r="B214" s="59"/>
+      <c r="C214" s="41" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" s="31" t="s">
+      <c r="D214" s="40" t="s">
         <v>589</v>
       </c>
-      <c r="B201" s="31"/>
-      <c r="C201" s="12" t="s">
+    </row>
+    <row r="215" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A215" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="D201" s="32" t="s">
+      <c r="B215" s="59"/>
+      <c r="C215" s="47" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="29" t="s">
+      <c r="D215" s="40" t="s">
         <v>592</v>
       </c>
-      <c r="B202" s="29"/>
-      <c r="C202" s="11" t="s">
+    </row>
+    <row r="216" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A216" s="30" t="s">
         <v>593</v>
       </c>
-      <c r="D202" s="33" t="s">
+      <c r="B216" s="59"/>
+      <c r="C216" s="41" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="31" t="s">
+      <c r="D216" s="40" t="s">
         <v>595</v>
       </c>
-      <c r="B203" s="31"/>
-      <c r="C203" s="12" t="s">
+    </row>
+    <row r="217" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A217" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="D203" s="32" t="s">
+      <c r="B217" s="59"/>
+      <c r="C217" s="41" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A204" s="29" t="s">
+      <c r="D217" s="40" t="s">
         <v>598</v>
       </c>
-      <c r="B204" s="29"/>
-      <c r="C204" s="13" t="s">
+    </row>
+    <row r="218" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A218" s="30" t="s">
         <v>599</v>
       </c>
-      <c r="D204" s="33" t="s">
+      <c r="B218" s="59"/>
+      <c r="C218" s="41" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="31" t="s">
+      <c r="D218" s="40" t="s">
         <v>601</v>
       </c>
-      <c r="B205" s="31"/>
-      <c r="C205" s="12" t="s">
+    </row>
+    <row r="219" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A219" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="D205" s="32" t="s">
+      <c r="B219" s="59"/>
+      <c r="C219" s="41" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="29" t="s">
+      <c r="D219" s="40" t="s">
         <v>604</v>
       </c>
-      <c r="B206" s="29"/>
-      <c r="C206" s="13" t="s">
+    </row>
+    <row r="220" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A220" s="30" t="s">
         <v>605</v>
       </c>
-      <c r="D206" s="33" t="s">
+      <c r="B220" s="59"/>
+      <c r="C220" s="47" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="31" t="s">
+      <c r="D220" s="40" t="s">
         <v>607</v>
       </c>
-      <c r="B207" s="31"/>
-      <c r="C207" s="16" t="s">
+    </row>
+    <row r="221" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A221" s="29" t="s">
         <v>608</v>
       </c>
-      <c r="D207" s="32" t="s">
+      <c r="B221" s="57"/>
+      <c r="C221" s="41" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A208" s="29" t="s">
+      <c r="D221" s="43" t="s">
         <v>610</v>
       </c>
-      <c r="B208" s="29"/>
-      <c r="C208" s="13" t="s">
+    </row>
+    <row r="222" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A222" s="30" t="s">
         <v>611</v>
       </c>
-      <c r="D208" s="33" t="s">
+      <c r="B222" s="57"/>
+      <c r="C222" s="41" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="31" t="s">
+      <c r="D222" s="42" t="s">
         <v>613</v>
       </c>
-      <c r="B209" s="31"/>
-      <c r="C209" s="12" t="s">
+    </row>
+    <row r="223" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A223" s="29" t="s">
         <v>614</v>
       </c>
-      <c r="D209" s="17" t="s">
+      <c r="B223" s="57"/>
+      <c r="C223" s="47" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="29" t="s">
+      <c r="D223" s="42" t="s">
         <v>616</v>
       </c>
-      <c r="B210" s="29"/>
-      <c r="C210" s="11" t="s">
+    </row>
+    <row r="224" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A224" s="30" t="s">
         <v>617</v>
       </c>
-      <c r="D210" s="34" t="s">
+      <c r="B224" s="57"/>
+      <c r="C224" s="41" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="31" t="s">
+      <c r="D224" s="42" t="s">
         <v>619</v>
       </c>
-      <c r="B211" s="31"/>
-      <c r="C211" s="12" t="s">
+    </row>
+    <row r="225" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A225" s="29" t="s">
         <v>620</v>
       </c>
-      <c r="D211" s="17" t="s">
+      <c r="B225" s="57"/>
+      <c r="C225" s="41" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A212" s="29" t="s">
+      <c r="D225" s="42" t="s">
         <v>622</v>
       </c>
-      <c r="B212" s="29"/>
-      <c r="C212" s="13" t="s">
+    </row>
+    <row r="226" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A226" s="30" t="s">
         <v>623</v>
       </c>
-      <c r="D212" s="34" t="s">
+      <c r="B226" s="57"/>
+      <c r="C226" s="41" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A213" s="31" t="s">
+      <c r="D226" s="42" t="s">
         <v>625</v>
       </c>
-      <c r="B213" s="31"/>
-      <c r="C213" s="12" t="s">
+    </row>
+    <row r="227" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A227" s="29" t="s">
         <v>626</v>
       </c>
-      <c r="D213" s="17" t="s">
+      <c r="B227" s="57"/>
+      <c r="C227" s="41" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A214" s="29" t="s">
+      <c r="D227" s="42" t="s">
         <v>628</v>
       </c>
-      <c r="B214" s="29"/>
-      <c r="C214" s="13" t="s">
+    </row>
+    <row r="228" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A228" s="30" t="s">
         <v>629</v>
       </c>
-      <c r="D214" s="34" t="s">
+      <c r="B228" s="57"/>
+      <c r="C228" s="41" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A215" s="31" t="s">
+      <c r="D228" s="42" t="s">
         <v>631</v>
       </c>
-      <c r="B215" s="31"/>
-      <c r="C215" s="12" t="s">
+    </row>
+    <row r="229" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A229" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="D215" s="17" t="s">
+      <c r="B229" s="57"/>
+      <c r="C229" s="39" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A216" s="29" t="s">
+      <c r="D229" s="42" t="s">
         <v>634</v>
       </c>
-      <c r="B216" s="29"/>
-      <c r="C216" s="13" t="s">
+    </row>
+    <row r="230" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A230" s="30" t="s">
         <v>635</v>
       </c>
-      <c r="D216" s="34" t="s">
+      <c r="B230" s="57"/>
+      <c r="C230" s="41" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" s="31" t="s">
+      <c r="D230" s="43" t="s">
         <v>637</v>
       </c>
-      <c r="B217" s="31"/>
-      <c r="C217" s="12" t="s">
+    </row>
+    <row r="231" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A231" s="29" t="s">
         <v>638</v>
       </c>
-      <c r="D217" s="32" t="s">
+      <c r="B231" s="57"/>
+      <c r="C231" s="41" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="29" t="s">
+      <c r="D231" s="42" t="s">
         <v>640</v>
       </c>
-      <c r="B218" s="29"/>
-      <c r="C218" s="13" t="s">
+    </row>
+    <row r="232" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A232" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="D218" s="34" t="s">
+      <c r="B232" s="57"/>
+      <c r="C232" s="39" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A219" s="31" t="s">
+      <c r="D232" s="42" t="s">
         <v>643</v>
       </c>
-      <c r="B219" s="31"/>
-      <c r="C219" s="12" t="s">
+    </row>
+    <row r="233" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A233" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="D219" s="17" t="s">
+      <c r="B233" s="57"/>
+      <c r="C233" s="39" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A220" s="29" t="s">
+      <c r="D233" s="42" t="s">
         <v>646</v>
       </c>
-      <c r="B220" s="29"/>
-      <c r="C220" s="13" t="s">
+    </row>
+    <row r="234" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" s="30" t="s">
         <v>647</v>
       </c>
-      <c r="D220" s="34" t="s">
+      <c r="B234" s="57"/>
+      <c r="C234" s="39" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A221" s="31" t="s">
+      <c r="D234" s="43" t="s">
         <v>649</v>
       </c>
-      <c r="B221" s="31"/>
-      <c r="C221" s="12" t="s">
+    </row>
+    <row r="235" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A235" s="29" t="s">
         <v>650</v>
       </c>
-      <c r="D221" s="32" t="s">
+      <c r="B235" s="57"/>
+      <c r="C235" s="39" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="29" t="s">
+      <c r="D235" s="43" t="s">
         <v>652</v>
       </c>
-      <c r="B222" s="29"/>
-      <c r="C222" s="13" t="s">
+    </row>
+    <row r="236" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="30" t="s">
         <v>653</v>
       </c>
-      <c r="D222" s="33" t="s">
+      <c r="B236" s="57"/>
+      <c r="C236" s="44" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="31" t="s">
+      <c r="D236" s="45" t="s">
         <v>655</v>
       </c>
-      <c r="B223" s="31"/>
-      <c r="C223" s="12" t="s">
+    </row>
+    <row r="237" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A237" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="D223" s="32" t="s">
+      <c r="B237" s="57"/>
+      <c r="C237" s="39" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A224" s="29" t="s">
+      <c r="D237" s="40" t="s">
         <v>658</v>
       </c>
-      <c r="B224" s="29"/>
-      <c r="C224" s="13" t="s">
+    </row>
+    <row r="238" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A238" s="32" t="s">
         <v>659</v>
       </c>
-      <c r="D224" s="33" t="s">
+      <c r="B238" s="7"/>
+      <c r="C238" s="37" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A225" s="7" t="s">
+      <c r="D238" s="34" t="s">
         <v>661</v>
       </c>
-      <c r="B225" s="7"/>
-      <c r="C225" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="D225" s="8" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="B227" s="5"/>
-      <c r="C227" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="D227" s="6" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="B229" s="5"/>
-      <c r="C229" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="D229" s="6" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="D230" s="4" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="B231" s="5"/>
-      <c r="C231" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="D231" s="6" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="B233" s="5"/>
-      <c r="C233" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="D233" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="B235" s="5"/>
-      <c r="C235" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="D235" s="6" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="B237" s="5"/>
-      <c r="C237" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="D237" s="6" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A238" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A239" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="B239" s="5"/>
-      <c r="C239" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="D240" s="4" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="B241" s="5"/>
-      <c r="C241" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="D241" s="6" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="B243" s="5"/>
-      <c r="C243" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="D243" s="6" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="D244" s="4" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A245" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="B245" s="5"/>
-      <c r="C245" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="D245" s="6" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D246" s="4" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A247" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="B247" s="5"/>
-      <c r="C247" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="D247" s="6" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="D248" s="4" t="s">
-        <v>729</v>
-      </c>
+    </row>
+    <row r="239" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A239" s="32" t="s">
+        <v>942</v>
+      </c>
+      <c r="B239" s="7"/>
+      <c r="C239" s="34" t="s">
+        <v>946</v>
+      </c>
+      <c r="D239" s="34" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A240" s="32" t="s">
+        <v>943</v>
+      </c>
+      <c r="B240" s="7"/>
+      <c r="C240" s="34" t="s">
+        <v>947</v>
+      </c>
+      <c r="D240" s="34" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A241" s="32" t="s">
+        <v>944</v>
+      </c>
+      <c r="B241" s="7"/>
+      <c r="C241" s="34" t="s">
+        <v>948</v>
+      </c>
+      <c r="D241" s="34" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A242" s="32" t="s">
+        <v>945</v>
+      </c>
+      <c r="B242" s="7"/>
+      <c r="C242" s="34" t="s">
+        <v>949</v>
+      </c>
+      <c r="D242" s="34" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A243" s="32" t="s">
+        <v>929</v>
+      </c>
+      <c r="B243" s="7"/>
+      <c r="C243" s="34" t="s">
+        <v>933</v>
+      </c>
+      <c r="D243" s="34" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A244" s="32" t="s">
+        <v>930</v>
+      </c>
+      <c r="B244" s="7"/>
+      <c r="C244" s="35" t="s">
+        <v>934</v>
+      </c>
+      <c r="D244" s="34" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A245" s="32" t="s">
+        <v>931</v>
+      </c>
+      <c r="B245" s="7"/>
+      <c r="C245" s="34" t="s">
+        <v>935</v>
+      </c>
+      <c r="D245" s="34" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A246" s="33" t="s">
+        <v>932</v>
+      </c>
+      <c r="B246" s="7"/>
+      <c r="C246" s="34" t="s">
+        <v>936</v>
+      </c>
+      <c r="D246" s="36" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="7"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="8"/>
+      <c r="D247" s="8"/>
+    </row>
+    <row r="248" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="7"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="8"/>
+      <c r="D248" s="8"/>
     </row>
     <row r="249" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="B249" s="5"/>
-      <c r="C249" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="D249" s="6" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="D250" s="4" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="B251" s="5"/>
-      <c r="C251" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>738</v>
-      </c>
+      <c r="A249" s="7"/>
+      <c r="B249" s="7"/>
+      <c r="C249" s="8"/>
+      <c r="D249" s="8"/>
+    </row>
+    <row r="250" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="7"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="8"/>
+      <c r="D250" s="8"/>
+    </row>
+    <row r="251" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="7"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="8"/>
+      <c r="D251" s="8"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>739</v>
+        <v>662</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>740</v>
+        <v>663</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>741</v>
+        <v>664</v>
       </c>
     </row>
     <row r="253" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>742</v>
+        <v>665</v>
       </c>
       <c r="B253" s="5"/>
       <c r="C253" s="6" t="s">
-        <v>743</v>
+        <v>666</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>744</v>
+        <v>667</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>745</v>
+        <v>668</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>746</v>
+        <v>669</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>747</v>
+        <v>670</v>
       </c>
     </row>
     <row r="255" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>748</v>
+        <v>671</v>
       </c>
       <c r="B255" s="5"/>
       <c r="C255" s="6" t="s">
-        <v>749</v>
+        <v>672</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>750</v>
+        <v>673</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>751</v>
+        <v>674</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>752</v>
+        <v>675</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>754</v>
+        <v>677</v>
       </c>
       <c r="B257" s="5"/>
       <c r="C257" s="6" t="s">
-        <v>755</v>
+        <v>678</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>756</v>
+        <v>679</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>757</v>
+        <v>680</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>758</v>
+        <v>681</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>759</v>
+        <v>682</v>
       </c>
     </row>
     <row r="259" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>760</v>
+        <v>683</v>
       </c>
       <c r="B259" s="5"/>
       <c r="C259" s="6" t="s">
-        <v>761</v>
+        <v>684</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>763</v>
+        <v>686</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>764</v>
+        <v>687</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>765</v>
+        <v>688</v>
       </c>
     </row>
     <row r="261" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>766</v>
+        <v>689</v>
       </c>
       <c r="B261" s="5"/>
       <c r="C261" s="6" t="s">
-        <v>767</v>
+        <v>690</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>768</v>
+        <v>691</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>769</v>
+        <v>692</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>770</v>
+        <v>78</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>771</v>
+        <v>693</v>
       </c>
     </row>
     <row r="263" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>772</v>
+        <v>694</v>
       </c>
       <c r="B263" s="5"/>
       <c r="C263" s="6" t="s">
-        <v>773</v>
+        <v>695</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>775</v>
+        <v>697</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>776</v>
+        <v>698</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>778</v>
+        <v>700</v>
       </c>
       <c r="B265" s="5"/>
       <c r="C265" s="6" t="s">
-        <v>779</v>
+        <v>701</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>781</v>
+        <v>703</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>782</v>
+        <v>704</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>783</v>
+        <v>705</v>
       </c>
     </row>
     <row r="267" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>784</v>
+        <v>706</v>
       </c>
       <c r="B267" s="5"/>
       <c r="C267" s="6" t="s">
-        <v>785</v>
+        <v>707</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>786</v>
+        <v>708</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>787</v>
+        <v>709</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>788</v>
+        <v>707</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>790</v>
+        <v>710</v>
       </c>
       <c r="B269" s="5"/>
       <c r="C269" s="6" t="s">
-        <v>791</v>
+        <v>711</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>793</v>
+        <v>713</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>794</v>
+        <v>714</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>795</v>
+        <v>715</v>
       </c>
     </row>
     <row r="271" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>796</v>
+        <v>716</v>
       </c>
       <c r="B271" s="5"/>
       <c r="C271" s="6" t="s">
-        <v>797</v>
+        <v>717</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>799</v>
+        <v>719</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
       <c r="B273" s="5"/>
       <c r="C273" s="6" t="s">
-        <v>803</v>
+        <v>723</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>804</v>
+        <v>724</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>805</v>
+        <v>725</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>806</v>
+        <v>726</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>808</v>
+        <v>728</v>
       </c>
       <c r="B275" s="5"/>
       <c r="C275" s="6" t="s">
-        <v>809</v>
+        <v>729</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>810</v>
+        <v>730</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>811</v>
+        <v>731</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>812</v>
+        <v>732</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>813</v>
+        <v>733</v>
       </c>
     </row>
     <row r="277" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>814</v>
+        <v>734</v>
       </c>
       <c r="B277" s="5"/>
       <c r="C277" s="6" t="s">
-        <v>815</v>
+        <v>735</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>816</v>
+        <v>736</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>817</v>
+        <v>737</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>818</v>
+        <v>738</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>820</v>
+        <v>740</v>
       </c>
       <c r="B279" s="5"/>
       <c r="C279" s="6" t="s">
-        <v>821</v>
+        <v>741</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>823</v>
+        <v>743</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>824</v>
+        <v>744</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>826</v>
+        <v>746</v>
       </c>
       <c r="B281" s="5"/>
       <c r="C281" s="6" t="s">
-        <v>827</v>
+        <v>747</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>829</v>
+        <v>749</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>830</v>
+        <v>750</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>832</v>
+        <v>752</v>
       </c>
       <c r="B283" s="5"/>
       <c r="C283" s="6" t="s">
-        <v>833</v>
+        <v>753</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>835</v>
+        <v>755</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>836</v>
+        <v>756</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>837</v>
+        <v>757</v>
       </c>
     </row>
     <row r="285" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>838</v>
+        <v>758</v>
       </c>
       <c r="B285" s="5"/>
       <c r="C285" s="6" t="s">
-        <v>839</v>
+        <v>759</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>841</v>
+        <v>761</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>842</v>
+        <v>762</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>843</v>
+        <v>763</v>
       </c>
     </row>
     <row r="287" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>844</v>
+        <v>764</v>
       </c>
       <c r="B287" s="5"/>
       <c r="C287" s="6" t="s">
-        <v>845</v>
+        <v>765</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>846</v>
+        <v>766</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>847</v>
+        <v>767</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>848</v>
+        <v>768</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>849</v>
+        <v>769</v>
       </c>
     </row>
     <row r="289" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>850</v>
+        <v>770</v>
       </c>
       <c r="B289" s="5"/>
       <c r="C289" s="6" t="s">
-        <v>851</v>
+        <v>771</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>852</v>
+        <v>772</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>853</v>
+        <v>773</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>854</v>
+        <v>774</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>855</v>
+        <v>775</v>
       </c>
     </row>
     <row r="291" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>856</v>
+        <v>776</v>
       </c>
       <c r="B291" s="5"/>
       <c r="C291" s="6" t="s">
-        <v>857</v>
+        <v>777</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>858</v>
+        <v>778</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>859</v>
+        <v>779</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>860</v>
+        <v>780</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>861</v>
+        <v>781</v>
       </c>
     </row>
     <row r="293" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>862</v>
+        <v>782</v>
       </c>
       <c r="B293" s="5"/>
       <c r="C293" s="6" t="s">
-        <v>863</v>
+        <v>783</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>864</v>
+        <v>784</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>865</v>
+        <v>785</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>866</v>
+        <v>786</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>868</v>
+        <v>788</v>
       </c>
       <c r="B295" s="5"/>
       <c r="C295" s="6" t="s">
-        <v>869</v>
+        <v>789</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>870</v>
+        <v>790</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>871</v>
+        <v>791</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>872</v>
+        <v>792</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>874</v>
+        <v>794</v>
       </c>
       <c r="B297" s="5"/>
       <c r="C297" s="6" t="s">
-        <v>875</v>
+        <v>795</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>877</v>
+        <v>797</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>878</v>
+        <v>798</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="B299" s="5"/>
       <c r="C299" s="6" t="s">
-        <v>881</v>
+        <v>801</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>882</v>
+        <v>802</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>883</v>
+        <v>803</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>884</v>
+        <v>804</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>886</v>
+        <v>806</v>
       </c>
       <c r="B301" s="5"/>
       <c r="C301" s="6" t="s">
-        <v>887</v>
+        <v>807</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>888</v>
+        <v>808</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>889</v>
+        <v>809</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>890</v>
+        <v>810</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>892</v>
+        <v>812</v>
       </c>
       <c r="B303" s="5"/>
       <c r="C303" s="6" t="s">
-        <v>386</v>
+        <v>813</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>893</v>
+        <v>814</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>894</v>
+        <v>815</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>895</v>
+        <v>816</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>897</v>
+        <v>818</v>
       </c>
       <c r="B305" s="5"/>
       <c r="C305" s="6" t="s">
-        <v>898</v>
+        <v>819</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>900</v>
+        <v>821</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>901</v>
+        <v>822</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>902</v>
+        <v>823</v>
       </c>
     </row>
     <row r="307" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>903</v>
+        <v>824</v>
       </c>
       <c r="B307" s="5"/>
       <c r="C307" s="6" t="s">
-        <v>904</v>
+        <v>825</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>906</v>
+        <v>827</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>907</v>
+        <v>828</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>909</v>
+        <v>830</v>
       </c>
       <c r="B309" s="5"/>
       <c r="C309" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B311" s="5"/>
+      <c r="C311" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B313" s="5"/>
+      <c r="C313" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="B315" s="5"/>
+      <c r="C315" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="B317" s="5"/>
+      <c r="C317" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="B319" s="5"/>
+      <c r="C319" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="B321" s="5"/>
+      <c r="C321" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="B323" s="5"/>
+      <c r="C323" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="D324" s="4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="B325" s="5"/>
+      <c r="C325" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="D326" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="B327" s="5"/>
+      <c r="C327" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="D328" s="4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="B329" s="5"/>
+      <c r="C329" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="D330" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B331" s="5"/>
+      <c r="C331" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="D332" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A333" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="B333" s="5"/>
+      <c r="C333" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D334" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="B335" s="5"/>
+      <c r="C335" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B336" s="9" t="s">
         <v>910</v>
       </c>
-      <c r="D309" s="6" t="s">
+      <c r="C336" s="26" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B310" s="9" t="s">
+      <c r="D336" s="10"/>
+    </row>
+    <row r="337" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="5"/>
+      <c r="B337" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="C310" s="26" t="s">
+      <c r="C337" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="D310" s="10"/>
-    </row>
-    <row r="311" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="5"/>
-      <c r="B311" s="7" t="s">
+      <c r="D337" s="8"/>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B338" s="9" t="s">
         <v>914</v>
       </c>
-      <c r="C311" s="8" t="s">
+      <c r="C338" s="10" t="s">
         <v>915</v>
       </c>
-      <c r="D311" s="8"/>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B312" s="9" t="s">
+      <c r="D338" s="10"/>
+    </row>
+    <row r="339" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="5"/>
+      <c r="B339" s="7" t="s">
         <v>916</v>
       </c>
-      <c r="C312" s="10" t="s">
+      <c r="C339" s="25" t="s">
         <v>917</v>
       </c>
-      <c r="D312" s="10"/>
-    </row>
-    <row r="313" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="5"/>
-      <c r="B313" s="7" t="s">
+      <c r="D339" s="8" t="s">
         <v>918</v>
       </c>
-      <c r="C313" s="25" t="s">
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B340" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="C340" s="31" t="s">
         <v>919</v>
       </c>
-      <c r="D313" s="8" t="s">
+      <c r="D340" s="10" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B314" s="9" t="s">
-        <v>918</v>
-      </c>
-      <c r="C314" s="33" t="s">
+    <row r="341" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="5"/>
+      <c r="B341" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="D314" s="10" t="s">
+      <c r="C341" s="8" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="5"/>
-      <c r="B315" s="7" t="s">
+      <c r="D341" s="8"/>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B342" s="9" t="s">
         <v>923</v>
       </c>
-      <c r="C315" s="8" t="s">
+      <c r="C342" s="10" t="s">
         <v>924</v>
       </c>
-      <c r="D315" s="8"/>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B316" s="9" t="s">
+      <c r="D342" s="10"/>
+    </row>
+    <row r="343" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="5"/>
+      <c r="B343" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="C316" s="10" t="s">
+      <c r="C343" s="8" t="s">
         <v>926</v>
       </c>
-      <c r="D316" s="10"/>
-    </row>
-    <row r="317" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="5"/>
-      <c r="B317" s="7" t="s">
+      <c r="D343" s="8"/>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B344" s="9" t="s">
         <v>927</v>
       </c>
-      <c r="C317" s="8" t="s">
+      <c r="C344" s="10" t="s">
         <v>928</v>
       </c>
-      <c r="D317" s="8"/>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B318" s="9" t="s">
-        <v>929</v>
-      </c>
-      <c r="C318" s="10" t="s">
-        <v>930</v>
-      </c>
-      <c r="D318" s="10"/>
+      <c r="D344" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b99410e8-8a6a-49c6-81e8-d5ade3e7c0f2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2192455f-dd39-46c2-a242-0e30632fa188" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010047F5F31BAC119E48A47C88360B4E277D" ma:contentTypeVersion="16" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a594811bfb88eb73205f730fd641aff2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b99410e8-8a6a-49c6-81e8-d5ade3e7c0f2" xmlns:ns3="2192455f-dd39-46c2-a242-0e30632fa188" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="33de6fe5c360230ed021394b19300506" ns2:_="" ns3:_="">
+    <xsd:import namespace="b99410e8-8a6a-49c6-81e8-d5ade3e7c0f2"/>
+    <xsd:import namespace="2192455f-dd39-46c2-a242-0e30632fa188"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b99410e8-8a6a-49c6-81e8-d5ade3e7c0f2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Billedmærker" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="77cd6466-0c3f-4dec-b109-a6ea28fc2e6f" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2192455f-dd39-46c2-a242-0e30632fa188" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Delt med" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Delt med detaljer" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{1ba37686-1f90-409d-b7c5-fb50cc7e7cbd}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="2192455f-dd39-46c2-a242-0e30632fa188">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Indholdstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{660C4075-FD93-47A1-BC33-7352171551C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C4EFF3F-41DF-478B-9B86-D9FD5A76C4E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2192455f-dd39-46c2-a242-0e30632fa188"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b99410e8-8a6a-49c6-81e8-d5ade3e7c0f2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BBC0FCF-CA6B-43B2-840D-46D9480CED33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b99410e8-8a6a-49c6-81e8-d5ade3e7c0f2"/>
+    <ds:schemaRef ds:uri="2192455f-dd39-46c2-a242-0e30632fa188"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Onboarding Documents/Error and warning codes.xlsx
+++ b/Onboarding Documents/Error and warning codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skat.sharepoint.com/sites/proj_4929/Delte dokumenter/General/R1.2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netcompany-my.sharepoint.com/personal/albt_netcompany_com/Documents/Dokumenter/GitHub/dms-public-private/Onboarding Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{5210483F-ED55-4B6D-9C2F-A8B1A45F6BC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{68BEDA70-18AA-46E8-ADFD-D8577A89A955}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="8_{5210483F-ED55-4B6D-9C2F-A8B1A45F6BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4DFBEC8-F427-426A-A1FE-63C275E34DE4}"/>
   <bookViews>
-    <workbookView xWindow="-13740" yWindow="-16410" windowWidth="21600" windowHeight="11385" xr2:uid="{B85A02ED-9ABC-4F63-82FC-39E5924E62E4}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B85A02ED-9ABC-4F63-82FC-39E5924E62E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="1010">
   <si>
     <t>Error code</t>
   </si>
@@ -1493,9 +1493,6 @@
     <t>DK2008</t>
   </si>
   <si>
-    <t>DKW2008</t>
-  </si>
-  <si>
     <t>Error in 'Authorisationnumber' (16 15 052 000), number is not entered correctly, authorisation code must be DKTST_n9.</t>
   </si>
   <si>
@@ -3039,13 +3036,43 @@
   </si>
   <si>
     <t>Fejl i 'Authorisation Type' (12 12 002 000), denne dokument type er ikke tilladt</t>
+  </si>
+  <si>
+    <t>DK1274</t>
+  </si>
+  <si>
+    <t>If Qualifier of identification (16 15 046 000) = Y, then authorisation number must be provided and of valid format</t>
+  </si>
+  <si>
+    <t>Hvis identifikationskoden (16 15 046 000) = Y, så skal Authoriserings nummer være valid format og udfyldt</t>
+  </si>
+  <si>
+    <t>DK1417</t>
+  </si>
+  <si>
+    <t>If the typeOfLocation 16 15 045 000 is 'B' and the qualifierOfIdentification 16 15 046 000 is 'Y', then an authorisation of type C521 must exist. (NCTS)</t>
+  </si>
+  <si>
+    <t>Hvis Stedets Art 16 15 045 000 har værdien 'B' og Identifikationskvalifikator 16 15 046 000 er 'Y', så skal der være en bevilling med type C521. (NCTS)</t>
+  </si>
+  <si>
+    <t>CWM12065</t>
+  </si>
+  <si>
+    <t>When CC582C has been transmitted by NECA, then (CC583) AdditionalMessage.enquiryInformationCode can ONLY be '1', '2' or '4' else invalid.</t>
+  </si>
+  <si>
+    <t>CWM12068</t>
+  </si>
+  <si>
+    <t>When an IE590 is received and it refers to an IE547 (this is checked outside this rule), then the IE547 must exist in the solution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3127,8 +3154,135 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3153,8 +3307,187 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -3249,11 +3582,184 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3432,12 +3938,78 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" xr:uid="{146E1E7C-7AA0-47B6-AF76-7541E0E3B584}"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3749,17 +4321,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C124F3A-70A1-4C39-B88D-70E9954F3B3C}">
-  <dimension ref="A1:F344"/>
+  <dimension ref="A1:K348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="39.5703125" style="4" customWidth="1"/>
     <col min="5" max="11" width="9.140625" style="4"/>
     <col min="12" max="12" width="45.42578125" style="4" customWidth="1"/>
@@ -4061,7 +4633,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
@@ -4070,7 +4642,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>73</v>
       </c>
@@ -4078,7 +4650,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>75</v>
       </c>
@@ -4087,7 +4659,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>77</v>
       </c>
@@ -4095,7 +4667,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>79</v>
       </c>
@@ -4104,2597 +4676,2623 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="67" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B38" s="67"/>
+      <c r="C38" s="68" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+    </row>
+    <row r="39" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>83</v>
+        <v>1008</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D44" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+    <row r="45" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B48" s="9"/>
-      <c r="C48" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="C48" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B50" s="9"/>
-      <c r="C50" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="C50" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D55" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="13" t="s">
+      <c r="B56" s="9"/>
+      <c r="C56" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="12" t="s">
-        <v>941</v>
-      </c>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="B57" s="7"/>
+      <c r="C57" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B58" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D58" s="10" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="8" t="s">
-        <v>139</v>
+        <v>131</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B60" s="9"/>
-      <c r="C60" s="10" t="s">
-        <v>142</v>
+      <c r="C60" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B61" s="7"/>
-      <c r="C61" s="12" t="s">
-        <v>145</v>
+      <c r="C61" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B63" s="7"/>
-      <c r="C63" s="8" t="s">
-        <v>151</v>
+      <c r="C63" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D66" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
+    <row r="67" spans="1:4" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="8" t="s">
+      <c r="B67" s="15"/>
+      <c r="C67" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D67" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B69" s="7"/>
-      <c r="C69" s="12" t="s">
-        <v>169</v>
+      <c r="C69" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="13" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="12" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D74" s="10" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B76" s="9"/>
-      <c r="C76" s="13" t="s">
-        <v>189</v>
+      <c r="C76" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B78" s="9"/>
-      <c r="C78" s="10" t="s">
-        <v>195</v>
+      <c r="C78" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="10" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B84" s="9"/>
+      <c r="C84" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D84" s="10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
+    <row r="85" spans="1:6" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="12" t="s">
+      <c r="B85" s="7"/>
+      <c r="C85" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D85" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+    <row r="86" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="13" t="s">
+      <c r="B86" s="9"/>
+      <c r="C86" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D86" s="10" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
+    <row r="87" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B87" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C87" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D87" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+    <row r="88" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>957</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
         <v>954</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B89" s="46" t="s">
         <v>956</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>958</v>
-      </c>
-      <c r="D86" s="10" t="s">
+      <c r="C89" s="14" t="s">
         <v>959</v>
       </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-    </row>
-    <row r="87" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
-        <v>955</v>
-      </c>
-      <c r="B87" s="46" t="s">
-        <v>957</v>
-      </c>
-      <c r="C87" s="14" t="s">
+      <c r="D89" s="16" t="s">
         <v>960</v>
       </c>
-      <c r="D87" s="16" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+    </row>
+    <row r="90" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B90" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D90" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+    <row r="91" spans="1:6" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B91" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C91" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D91" s="14" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B92" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D92" s="10" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+    <row r="93" spans="1:6" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B93" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C93" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D93" s="8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+    <row r="94" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="13" t="s">
+      <c r="B94" s="9"/>
+      <c r="C94" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D94" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+    <row r="95" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B95" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C95" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D95" s="8" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B96" s="9"/>
+        <v>242</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="C96" s="10" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B97" s="7"/>
+        <v>246</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>247</v>
+      </c>
       <c r="C97" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>255</v>
+        <v>248</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>267</v>
+        <v>260</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B102" s="9"/>
-      <c r="C102" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>270</v>
+      <c r="C102" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B103" s="7"/>
-      <c r="C103" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>273</v>
+      <c r="C103" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B104" s="9"/>
+      <c r="C104" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B104" s="9"/>
-      <c r="C104" s="20" t="s">
+      <c r="B106" s="9"/>
+      <c r="C106" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D106" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
+    <row r="107" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="B105" s="7"/>
-      <c r="C105" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="10" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="8" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="8" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>299</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="B112" s="9"/>
       <c r="C112" s="10" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B115" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C115" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D115" s="8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
+    <row r="116" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="B114" s="9"/>
-      <c r="C114" s="10" t="s">
+      <c r="B116" s="9"/>
+      <c r="C116" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D116" s="10" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
+    <row r="117" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B117" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C117" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D117" s="8" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B120" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C120" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D120" s="10" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B123" s="7"/>
+        <v>333</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="C123" s="8" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="8" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="B126" s="9"/>
-      <c r="C126" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="D126" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="8" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B128" s="9"/>
-      <c r="C128" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>359</v>
+      <c r="C128" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="129" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="8" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="10" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="8" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="10" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="8" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B134" s="9"/>
       <c r="C134" s="10" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B136" s="9"/>
       <c r="C136" s="10" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B137" s="7"/>
       <c r="C137" s="8" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B138" s="9"/>
       <c r="C138" s="10" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="8" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B140" s="9"/>
       <c r="C140" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="D140" s="10"/>
-    </row>
-    <row r="141" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="D142" s="10"/>
+    </row>
+    <row r="143" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B144" s="9"/>
+      <c r="C144" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c r="C145" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="D143" s="8" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A144" s="7" t="s">
+      <c r="D145" s="8" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c r="C146" s="8" t="s">
         <v>968</v>
       </c>
-      <c r="B144" s="7"/>
-      <c r="C144" s="8" t="s">
+      <c r="D146" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="D144" s="8" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="23" t="s">
+    </row>
+    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="B145" s="23"/>
-      <c r="C145" s="13" t="s">
+      <c r="B147" s="23"/>
+      <c r="C147" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="D145" s="10" t="s">
+      <c r="D147" s="10" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="B146" s="7"/>
-      <c r="C146" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="D146" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="B147" s="9"/>
-      <c r="C147" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="148" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B148" s="7"/>
-      <c r="C148" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C148" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B149" s="9"/>
-      <c r="C149" s="24" t="s">
-        <v>416</v>
+      <c r="C149" s="13" t="s">
+        <v>410</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="150" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B150" s="7"/>
-      <c r="C150" s="25" t="s">
-        <v>419</v>
+      <c r="C150" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B151" s="9"/>
+      <c r="C151" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B151" s="9"/>
-      <c r="C151" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="D151" s="10" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="7" t="s">
-        <v>423</v>
-      </c>
       <c r="B152" s="7"/>
-      <c r="C152" s="8" t="s">
-        <v>424</v>
+      <c r="C152" s="25" t="s">
+        <v>419</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B153" s="9"/>
-      <c r="C153" s="26" t="s">
-        <v>427</v>
+      <c r="C153" s="10" t="s">
+        <v>421</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B155" s="9"/>
-      <c r="C155" s="10" t="s">
-        <v>432</v>
+      <c r="C155" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="156" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B156" s="7"/>
-      <c r="C156" s="27" t="s">
-        <v>435</v>
-      </c>
-      <c r="D156" s="8"/>
+      <c r="C156" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B157" s="9"/>
       <c r="C157" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="D157" s="10"/>
+        <v>432</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="158" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B158" s="7"/>
-      <c r="C158" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>422</v>
-      </c>
+      <c r="C158" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="D158" s="8"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B159" s="9"/>
       <c r="C159" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="D159" s="10" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="D159" s="10"/>
+    </row>
+    <row r="160" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B160" s="7"/>
       <c r="C160" s="8" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B161" s="9"/>
       <c r="C161" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B162" s="7"/>
-      <c r="C162" s="27" t="s">
-        <v>450</v>
+      <c r="C162" s="8" t="s">
+        <v>444</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B163" s="9"/>
       <c r="C163" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B164" s="7"/>
+      <c r="C164" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B165" s="9"/>
+      <c r="C165" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D163" s="10" t="s">
+      <c r="D165" s="10" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
-        <v>983</v>
-      </c>
-      <c r="B164" s="7"/>
-      <c r="C164" s="8" t="s">
-        <v>984</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="32" t="s">
-        <v>986</v>
-      </c>
-      <c r="B165" s="9"/>
-      <c r="C165" s="34" t="s">
-        <v>991</v>
-      </c>
-      <c r="D165" s="34" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="B166" s="7"/>
       <c r="C166" s="8" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="32" t="s">
-        <v>988</v>
+      <c r="A167" s="63" t="s">
+        <v>985</v>
       </c>
       <c r="B167" s="9"/>
       <c r="C167" s="34" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D167" s="34" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="8" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="60" t="s">
-        <v>990</v>
+      <c r="A169" s="63" t="s">
+        <v>987</v>
       </c>
       <c r="B169" s="9"/>
       <c r="C169" s="34" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D169" s="34" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>455</v>
+        <v>988</v>
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="62" t="s">
+        <v>989</v>
+      </c>
+      <c r="B171" s="60"/>
+      <c r="C171" s="34" t="s">
+        <v>994</v>
+      </c>
+      <c r="D171" s="34" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A172" s="65" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B172" s="7"/>
+      <c r="C172" s="64" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D172" s="64" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A173" s="61" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B173" s="9"/>
+      <c r="C173" s="66" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D173" s="66" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B174" s="7"/>
+      <c r="C174" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="D170" s="8" t="s">
+      <c r="D174" s="8" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A171" s="28" t="s">
+    <row r="175" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A175" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="B171" s="32" t="s">
+      <c r="B175" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="C171" s="39" t="s">
+      <c r="C175" s="39" t="s">
         <v>460</v>
       </c>
-      <c r="D171" s="34" t="s">
+      <c r="D175" s="34" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="172" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A172" s="7" t="s">
+    <row r="176" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B172" s="38" t="s">
-        <v>978</v>
-      </c>
-      <c r="C172" s="50" t="s">
+      <c r="B176" s="38" t="s">
+        <v>977</v>
+      </c>
+      <c r="C176" s="50" t="s">
         <v>463</v>
       </c>
-      <c r="D172" s="51" t="s">
+      <c r="D176" s="51" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A173" s="9" t="s">
+    <row r="177" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="B173" s="32" t="s">
+      <c r="B177" s="32" t="s">
         <v>466</v>
       </c>
-      <c r="C173" s="39" t="s">
+      <c r="C177" s="39" t="s">
         <v>467</v>
       </c>
-      <c r="D173" s="34" t="s">
+      <c r="D177" s="34" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="174" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A174" s="7" t="s">
+    <row r="178" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B174" s="32"/>
-      <c r="C174" s="39" t="s">
+      <c r="B178" s="32"/>
+      <c r="C178" s="39" t="s">
         <v>470</v>
       </c>
-      <c r="D174" s="34" t="s">
+      <c r="D178" s="34" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A175" s="9" t="s">
+    <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="B175" s="32" t="s">
+      <c r="B179" s="32" t="s">
         <v>473</v>
       </c>
-      <c r="C175" s="34" t="s">
+      <c r="C179" s="34" t="s">
         <v>474</v>
       </c>
-      <c r="D175" s="34" t="s">
+      <c r="D179" s="34" t="s">
         <v>475</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A176" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="B176" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="C176" s="39" t="s">
-        <v>478</v>
-      </c>
-      <c r="D176" s="34" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A177" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="B177" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="C177" s="34" t="s">
-        <v>482</v>
-      </c>
-      <c r="D177" s="34" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A178" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="B178" s="32" t="s">
-        <v>485</v>
-      </c>
-      <c r="C178" s="34" t="s">
-        <v>486</v>
-      </c>
-      <c r="D178" s="34" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A179" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="B179" s="32" t="s">
-        <v>489</v>
-      </c>
-      <c r="C179" s="34" t="s">
-        <v>490</v>
-      </c>
-      <c r="D179" s="34" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="180" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B180" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="C180" s="39" t="s">
+        <v>478</v>
+      </c>
+      <c r="D180" s="34" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B181" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="C181" s="34" t="s">
+        <v>482</v>
+      </c>
+      <c r="D181" s="34" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B182" s="38" t="s">
+        <v>977</v>
+      </c>
+      <c r="C182" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="D182" s="51" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B183" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="C183" s="34" t="s">
+        <v>489</v>
+      </c>
+      <c r="D183" s="34" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B184" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="B180" s="32" t="s">
+      <c r="C184" s="34" t="s">
         <v>493</v>
       </c>
-      <c r="C180" s="34" t="s">
+      <c r="D184" s="34" t="s">
         <v>494</v>
       </c>
-      <c r="D180" s="34" t="s">
+    </row>
+    <row r="185" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A181" s="9" t="s">
+      <c r="B185" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="B181" s="32" t="s">
+      <c r="C185" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="C181" s="37" t="s">
+      <c r="D185" s="34" t="s">
         <v>498</v>
       </c>
-      <c r="D181" s="34" t="s">
+    </row>
+    <row r="186" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A186" s="7" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A182" s="7" t="s">
+      <c r="B186" s="32" t="s">
         <v>500</v>
       </c>
-      <c r="B182" s="32" t="s">
+      <c r="C186" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="C182" s="37" t="s">
+      <c r="D186" s="34" t="s">
         <v>502</v>
       </c>
-      <c r="D182" s="34" t="s">
+    </row>
+    <row r="187" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A183" s="9" t="s">
+      <c r="B187" s="57"/>
+      <c r="C187" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="B183" s="57"/>
-      <c r="C183" s="37" t="s">
+      <c r="D187" s="34" t="s">
         <v>505</v>
       </c>
-      <c r="D183" s="34" t="s">
+    </row>
+    <row r="188" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="7" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" s="7" t="s">
+      <c r="B188" s="57"/>
+      <c r="C188" s="37" t="s">
         <v>507</v>
       </c>
-      <c r="B184" s="57"/>
-      <c r="C184" s="37" t="s">
+      <c r="D188" s="34" t="s">
         <v>508</v>
-      </c>
-      <c r="D184" s="34" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="B185" s="57"/>
-      <c r="C185" s="37" t="s">
-        <v>511</v>
-      </c>
-      <c r="D185" s="34" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="B186" s="57"/>
-      <c r="C186" s="52" t="s">
-        <v>514</v>
-      </c>
-      <c r="D186" s="34" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="B187" s="57"/>
-      <c r="C187" s="52" t="s">
-        <v>517</v>
-      </c>
-      <c r="D187" s="34" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A188" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="B188" s="57"/>
-      <c r="C188" s="52" t="s">
-        <v>520</v>
-      </c>
-      <c r="D188" s="34" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="B189" s="57" t="s">
-        <v>523</v>
-      </c>
-      <c r="C189" s="36" t="s">
-        <v>524</v>
+        <v>509</v>
+      </c>
+      <c r="B189" s="57"/>
+      <c r="C189" s="37" t="s">
+        <v>510</v>
       </c>
       <c r="D189" s="34" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
     </row>
     <row r="190" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B190" s="57"/>
+      <c r="C190" s="52" t="s">
+        <v>513</v>
+      </c>
+      <c r="D190" s="34" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B191" s="57"/>
+      <c r="C191" s="52" t="s">
+        <v>516</v>
+      </c>
+      <c r="D191" s="34" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B192" s="57"/>
+      <c r="C192" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="D192" s="34" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B193" s="57" t="s">
+        <v>522</v>
+      </c>
+      <c r="C193" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="D193" s="34" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B194" s="32" t="s">
         <v>526</v>
       </c>
-      <c r="B190" s="32" t="s">
+      <c r="C194" s="36" t="s">
         <v>527</v>
       </c>
-      <c r="C190" s="36" t="s">
+      <c r="D194" s="34" t="s">
         <v>528</v>
       </c>
-      <c r="D190" s="34" t="s">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="9" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="9" t="s">
+      <c r="B195" s="32"/>
+      <c r="C195" s="36" t="s">
         <v>530</v>
       </c>
-      <c r="B191" s="32"/>
-      <c r="C191" s="36" t="s">
+      <c r="D195" s="34" t="s">
         <v>531</v>
       </c>
-      <c r="D191" s="34" t="s">
+    </row>
+    <row r="196" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="7" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="7" t="s">
+      <c r="B196" s="32"/>
+      <c r="C196" s="53" t="s">
         <v>533</v>
       </c>
-      <c r="B192" s="32"/>
-      <c r="C192" s="53" t="s">
+      <c r="D196" s="34" t="s">
         <v>534</v>
       </c>
-      <c r="D192" s="34" t="s">
+    </row>
+    <row r="197" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A197" s="9" t="s">
         <v>535</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A193" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="B193" s="32"/>
-      <c r="C193" s="36" t="s">
-        <v>537</v>
-      </c>
-      <c r="D193" s="34" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A194" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="B194" s="32"/>
-      <c r="C194" s="36" t="s">
-        <v>540</v>
-      </c>
-      <c r="D194" s="34" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A195" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="B195" s="32"/>
-      <c r="C195" s="34" t="s">
-        <v>543</v>
-      </c>
-      <c r="D195" s="34" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A196" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="B196" s="32"/>
-      <c r="C196" s="34" t="s">
-        <v>546</v>
-      </c>
-      <c r="D196" s="34" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A197" s="28" t="s">
-        <v>548</v>
       </c>
       <c r="B197" s="32"/>
       <c r="C197" s="36" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="D197" s="34" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="B198" s="32"/>
       <c r="C198" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="D198" s="34" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A199" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B199" s="32"/>
+      <c r="C199" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="D199" s="34" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A200" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="B200" s="32"/>
+      <c r="C200" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="D200" s="34" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A201" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="B201" s="32"/>
+      <c r="C201" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="D201" s="34" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B202" s="32"/>
+      <c r="C202" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="D202" s="34" t="s">
         <v>552</v>
       </c>
-      <c r="D198" s="34" t="s">
+    </row>
+    <row r="203" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="9" t="s">
         <v>553</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="B199" s="32"/>
-      <c r="C199" s="36" t="s">
-        <v>555</v>
-      </c>
-      <c r="D199" s="34" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A200" s="32" t="s">
-        <v>965</v>
-      </c>
-      <c r="B200" s="32" t="s">
-        <v>979</v>
-      </c>
-      <c r="C200" s="54" t="s">
-        <v>971</v>
-      </c>
-      <c r="D200" s="34" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A201" s="32" t="s">
-        <v>966</v>
-      </c>
-      <c r="B201" s="32" t="s">
-        <v>980</v>
-      </c>
-      <c r="C201" s="36" t="s">
-        <v>973</v>
-      </c>
-      <c r="D201" s="34" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A202" s="49" t="s">
-        <v>967</v>
-      </c>
-      <c r="B202" s="32" t="s">
-        <v>981</v>
-      </c>
-      <c r="C202" s="55" t="s">
-        <v>975</v>
-      </c>
-      <c r="D202" s="56" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="B203" s="32"/>
       <c r="C203" s="36" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D203" s="34" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="B204" s="32"/>
-      <c r="C204" s="36" t="s">
-        <v>561</v>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A204" s="32" t="s">
+        <v>964</v>
+      </c>
+      <c r="B204" s="32" t="s">
+        <v>978</v>
+      </c>
+      <c r="C204" s="54" t="s">
+        <v>970</v>
       </c>
       <c r="D204" s="34" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="B205" s="32"/>
+        <v>971</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A205" s="32" t="s">
+        <v>965</v>
+      </c>
+      <c r="B205" s="32" t="s">
+        <v>979</v>
+      </c>
       <c r="C205" s="36" t="s">
-        <v>564</v>
+        <v>972</v>
       </c>
       <c r="D205" s="34" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="B206" s="32"/>
-      <c r="C206" s="36" t="s">
-        <v>567</v>
-      </c>
-      <c r="D206" s="34" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A206" s="49" t="s">
+        <v>966</v>
+      </c>
+      <c r="B206" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="C206" s="55" t="s">
+        <v>974</v>
+      </c>
+      <c r="D206" s="56" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="B207" s="32"/>
       <c r="C207" s="36" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="D207" s="34" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="B208" s="32"/>
       <c r="C208" s="36" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="D208" s="34" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="B209" s="32"/>
       <c r="C209" s="36" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="D209" s="34" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="B210" s="32" t="s">
-        <v>982</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="B210" s="32"/>
       <c r="C210" s="36" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="D210" s="34" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B211" s="32" t="s">
-        <v>982</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="B211" s="32"/>
       <c r="C211" s="36" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="D211" s="34" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B212" s="32"/>
+      <c r="C212" s="36" t="s">
+        <v>572</v>
+      </c>
+      <c r="D212" s="34" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B213" s="32"/>
+      <c r="C213" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="D213" s="34" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B214" s="32" t="s">
+        <v>981</v>
+      </c>
+      <c r="C214" s="36" t="s">
+        <v>578</v>
+      </c>
+      <c r="D214" s="34" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B215" s="32" t="s">
+        <v>981</v>
+      </c>
+      <c r="C215" s="36" t="s">
+        <v>581</v>
+      </c>
+      <c r="D215" s="34" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A216" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B216" s="32" t="s">
+        <v>981</v>
+      </c>
+      <c r="C216" s="36" t="s">
         <v>584</v>
       </c>
-      <c r="B212" s="32" t="s">
-        <v>982</v>
-      </c>
-      <c r="C212" s="36" t="s">
+      <c r="D216" s="34" t="s">
         <v>585</v>
       </c>
-      <c r="D212" s="34" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A213" s="32" t="s">
+    </row>
+    <row r="217" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A217" s="32" t="s">
+        <v>961</v>
+      </c>
+      <c r="B217" s="58"/>
+      <c r="C217" s="36" t="s">
         <v>962</v>
       </c>
-      <c r="B213" s="58"/>
-      <c r="C213" s="36" t="s">
+      <c r="D217" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="D213" s="48" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A214" s="30" t="s">
-        <v>587</v>
-      </c>
-      <c r="B214" s="59"/>
-      <c r="C214" s="41" t="s">
-        <v>588</v>
-      </c>
-      <c r="D214" s="40" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A215" s="29" t="s">
-        <v>590</v>
-      </c>
-      <c r="B215" s="59"/>
-      <c r="C215" s="47" t="s">
-        <v>591</v>
-      </c>
-      <c r="D215" s="40" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A216" s="30" t="s">
-        <v>593</v>
-      </c>
-      <c r="B216" s="59"/>
-      <c r="C216" s="41" t="s">
-        <v>594</v>
-      </c>
-      <c r="D216" s="40" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A217" s="29" t="s">
-        <v>596</v>
-      </c>
-      <c r="B217" s="59"/>
-      <c r="C217" s="41" t="s">
-        <v>597</v>
-      </c>
-      <c r="D217" s="40" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="218" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="30" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="B218" s="59"/>
       <c r="C218" s="41" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="D218" s="40" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="29" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="B219" s="59"/>
-      <c r="C219" s="41" t="s">
-        <v>603</v>
+      <c r="C219" s="47" t="s">
+        <v>590</v>
       </c>
       <c r="D219" s="40" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
     </row>
     <row r="220" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="30" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="B220" s="59"/>
-      <c r="C220" s="47" t="s">
-        <v>606</v>
+      <c r="C220" s="41" t="s">
+        <v>593</v>
       </c>
       <c r="D220" s="40" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A221" s="29" t="s">
-        <v>608</v>
-      </c>
-      <c r="B221" s="57"/>
+        <v>595</v>
+      </c>
+      <c r="B221" s="59"/>
       <c r="C221" s="41" t="s">
-        <v>609</v>
-      </c>
-      <c r="D221" s="43" t="s">
-        <v>610</v>
+        <v>596</v>
+      </c>
+      <c r="D221" s="40" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="222" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="30" t="s">
-        <v>611</v>
-      </c>
-      <c r="B222" s="57"/>
+        <v>598</v>
+      </c>
+      <c r="B222" s="59"/>
       <c r="C222" s="41" t="s">
-        <v>612</v>
-      </c>
-      <c r="D222" s="42" t="s">
-        <v>613</v>
+        <v>599</v>
+      </c>
+      <c r="D222" s="40" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A223" s="29" t="s">
-        <v>614</v>
-      </c>
-      <c r="B223" s="57"/>
-      <c r="C223" s="47" t="s">
-        <v>615</v>
-      </c>
-      <c r="D223" s="42" t="s">
-        <v>616</v>
+        <v>601</v>
+      </c>
+      <c r="B223" s="59"/>
+      <c r="C223" s="41" t="s">
+        <v>602</v>
+      </c>
+      <c r="D223" s="40" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="224" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A224" s="30" t="s">
-        <v>617</v>
-      </c>
-      <c r="B224" s="57"/>
-      <c r="C224" s="41" t="s">
-        <v>618</v>
-      </c>
-      <c r="D224" s="42" t="s">
-        <v>619</v>
+        <v>604</v>
+      </c>
+      <c r="B224" s="59"/>
+      <c r="C224" s="47" t="s">
+        <v>605</v>
+      </c>
+      <c r="D224" s="40" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="29" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="B225" s="57"/>
       <c r="C225" s="41" t="s">
-        <v>621</v>
-      </c>
-      <c r="D225" s="42" t="s">
-        <v>622</v>
+        <v>608</v>
+      </c>
+      <c r="D225" s="43" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="226" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" s="30" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="B226" s="57"/>
       <c r="C226" s="41" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="D226" s="42" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" s="29" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="B227" s="57"/>
-      <c r="C227" s="41" t="s">
-        <v>627</v>
+      <c r="C227" s="47" t="s">
+        <v>614</v>
       </c>
       <c r="D227" s="42" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
     </row>
     <row r="228" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" s="30" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="B228" s="57"/>
       <c r="C228" s="41" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="D228" s="42" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A229" s="29" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="B229" s="57"/>
-      <c r="C229" s="39" t="s">
-        <v>633</v>
+      <c r="C229" s="41" t="s">
+        <v>620</v>
       </c>
       <c r="D229" s="42" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
     </row>
     <row r="230" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="30" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="B230" s="57"/>
       <c r="C230" s="41" t="s">
-        <v>636</v>
-      </c>
-      <c r="D230" s="43" t="s">
-        <v>637</v>
+        <v>623</v>
+      </c>
+      <c r="D230" s="42" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A231" s="29" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="B231" s="57"/>
       <c r="C231" s="41" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="D231" s="42" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
     </row>
     <row r="232" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" s="30" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="B232" s="57"/>
-      <c r="C232" s="39" t="s">
-        <v>642</v>
+      <c r="C232" s="41" t="s">
+        <v>629</v>
       </c>
       <c r="D232" s="42" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" s="29" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="B233" s="57"/>
       <c r="C233" s="39" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D233" s="42" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="30" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="B234" s="57"/>
-      <c r="C234" s="39" t="s">
-        <v>648</v>
+      <c r="C234" s="41" t="s">
+        <v>635</v>
       </c>
       <c r="D234" s="43" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="29" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="B235" s="57"/>
-      <c r="C235" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="D235" s="43" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C235" s="41" t="s">
+        <v>638</v>
+      </c>
+      <c r="D235" s="42" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="30" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="B236" s="57"/>
-      <c r="C236" s="44" t="s">
-        <v>654</v>
-      </c>
-      <c r="D236" s="45" t="s">
-        <v>655</v>
+      <c r="C236" s="39" t="s">
+        <v>641</v>
+      </c>
+      <c r="D236" s="42" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="29" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="B237" s="57"/>
       <c r="C237" s="39" t="s">
+        <v>644</v>
+      </c>
+      <c r="D237" s="42" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A238" s="30" t="s">
+        <v>646</v>
+      </c>
+      <c r="B238" s="57"/>
+      <c r="C238" s="39" t="s">
+        <v>647</v>
+      </c>
+      <c r="D238" s="43" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A239" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="B239" s="57"/>
+      <c r="C239" s="39" t="s">
+        <v>650</v>
+      </c>
+      <c r="D239" s="43" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="30" t="s">
+        <v>652</v>
+      </c>
+      <c r="B240" s="57"/>
+      <c r="C240" s="44" t="s">
+        <v>653</v>
+      </c>
+      <c r="D240" s="45" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A241" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="B241" s="57"/>
+      <c r="C241" s="39" t="s">
+        <v>656</v>
+      </c>
+      <c r="D241" s="40" t="s">
         <v>657</v>
       </c>
-      <c r="D237" s="40" t="s">
+    </row>
+    <row r="242" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="32" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A238" s="32" t="s">
+      <c r="B242" s="7"/>
+      <c r="C242" s="37" t="s">
         <v>659</v>
       </c>
-      <c r="B238" s="7"/>
-      <c r="C238" s="37" t="s">
+      <c r="D242" s="34" t="s">
         <v>660</v>
       </c>
-      <c r="D238" s="34" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A239" s="32" t="s">
-        <v>942</v>
-      </c>
-      <c r="B239" s="7"/>
-      <c r="C239" s="34" t="s">
-        <v>946</v>
-      </c>
-      <c r="D239" s="34" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A240" s="32" t="s">
-        <v>943</v>
-      </c>
-      <c r="B240" s="7"/>
-      <c r="C240" s="34" t="s">
-        <v>947</v>
-      </c>
-      <c r="D240" s="34" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A241" s="32" t="s">
-        <v>944</v>
-      </c>
-      <c r="B241" s="7"/>
-      <c r="C241" s="34" t="s">
-        <v>948</v>
-      </c>
-      <c r="D241" s="34" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A242" s="32" t="s">
-        <v>945</v>
-      </c>
-      <c r="B242" s="7"/>
-      <c r="C242" s="34" t="s">
-        <v>949</v>
-      </c>
-      <c r="D242" s="34" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="32" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="B243" s="7"/>
       <c r="C243" s="34" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="D243" s="34" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A244" s="32" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="B244" s="7"/>
-      <c r="C244" s="35" t="s">
-        <v>934</v>
+      <c r="C244" s="34" t="s">
+        <v>946</v>
       </c>
       <c r="D244" s="34" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A245" s="32" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="B245" s="7"/>
       <c r="C245" s="34" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="D245" s="34" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A246" s="33" t="s">
-        <v>932</v>
+        <v>951</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A246" s="32" t="s">
+        <v>944</v>
       </c>
       <c r="B246" s="7"/>
       <c r="C246" s="34" t="s">
+        <v>948</v>
+      </c>
+      <c r="D246" s="34" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A247" s="32" t="s">
+        <v>928</v>
+      </c>
+      <c r="B247" s="7"/>
+      <c r="C247" s="34" t="s">
+        <v>932</v>
+      </c>
+      <c r="D247" s="34" t="s">
         <v>936</v>
       </c>
-      <c r="D246" s="36" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
-      <c r="C247" s="8"/>
-      <c r="D247" s="8"/>
-    </row>
-    <row r="248" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="7"/>
+    </row>
+    <row r="248" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A248" s="32" t="s">
+        <v>929</v>
+      </c>
       <c r="B248" s="7"/>
-      <c r="C248" s="8"/>
-      <c r="D248" s="8"/>
-    </row>
-    <row r="249" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="7"/>
+      <c r="C248" s="35" t="s">
+        <v>933</v>
+      </c>
+      <c r="D248" s="34" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A249" s="32" t="s">
+        <v>930</v>
+      </c>
       <c r="B249" s="7"/>
-      <c r="C249" s="8"/>
-      <c r="D249" s="8"/>
-    </row>
-    <row r="250" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="7"/>
+      <c r="C249" s="34" t="s">
+        <v>934</v>
+      </c>
+      <c r="D249" s="34" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A250" s="33" t="s">
+        <v>931</v>
+      </c>
       <c r="B250" s="7"/>
-      <c r="C250" s="8"/>
-      <c r="D250" s="8"/>
+      <c r="C250" s="34" t="s">
+        <v>935</v>
+      </c>
+      <c r="D250" s="36" t="s">
+        <v>939</v>
+      </c>
     </row>
     <row r="251" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="7"/>
@@ -6702,1060 +7300,1084 @@
       <c r="C251" s="8"/>
       <c r="D251" s="8"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="3" t="s">
+    <row r="252" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="7"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="8"/>
+      <c r="D252" s="8"/>
+    </row>
+    <row r="253" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="7"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="8"/>
+      <c r="D253" s="8"/>
+    </row>
+    <row r="254" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="7"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="8"/>
+      <c r="D254" s="8"/>
+    </row>
+    <row r="255" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="7"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="8"/>
+      <c r="D255" s="8"/>
+    </row>
+    <row r="256" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="C252" s="4" t="s">
+      <c r="D256" s="4" t="s">
         <v>663</v>
-      </c>
-      <c r="D252" s="4" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="B253" s="5"/>
-      <c r="C253" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="D253" s="6" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="D254" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="B255" s="5"/>
-      <c r="C255" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="D255" s="6" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="D256" s="4" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="257" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="B257" s="5"/>
       <c r="C257" s="6" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="B259" s="5"/>
       <c r="C259" s="6" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="B261" s="5"/>
       <c r="C261" s="6" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>78</v>
+        <v>680</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="B263" s="5"/>
       <c r="C263" s="6" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
     </row>
     <row r="265" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="B265" s="5"/>
       <c r="C265" s="6" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>704</v>
+        <v>78</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="B267" s="5"/>
       <c r="C267" s="6" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="B269" s="5"/>
       <c r="C269" s="6" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
     </row>
     <row r="271" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="B271" s="5"/>
       <c r="C271" s="6" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="B273" s="5"/>
       <c r="C273" s="6" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="B275" s="5"/>
       <c r="C275" s="6" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="277" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="B277" s="5"/>
       <c r="C277" s="6" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
     </row>
     <row r="279" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="B279" s="5"/>
       <c r="C279" s="6" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="B281" s="5"/>
       <c r="C281" s="6" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="B283" s="5"/>
       <c r="C283" s="6" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
     </row>
     <row r="285" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="B285" s="5"/>
       <c r="C285" s="6" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="B287" s="5"/>
       <c r="C287" s="6" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
     </row>
     <row r="289" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="B289" s="5"/>
       <c r="C289" s="6" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
     </row>
     <row r="291" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="B291" s="5"/>
       <c r="C291" s="6" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="B293" s="5"/>
       <c r="C293" s="6" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="B295" s="5"/>
       <c r="C295" s="6" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="B297" s="5"/>
       <c r="C297" s="6" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="B299" s="5"/>
       <c r="C299" s="6" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
     </row>
     <row r="301" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="B301" s="5"/>
       <c r="C301" s="6" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="B303" s="5"/>
       <c r="C303" s="6" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="B305" s="5"/>
       <c r="C305" s="6" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
     </row>
     <row r="307" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="B307" s="5"/>
       <c r="C307" s="6" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
     </row>
     <row r="309" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="B309" s="5"/>
       <c r="C309" s="6" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="B311" s="5"/>
       <c r="C311" s="6" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="B313" s="5"/>
       <c r="C313" s="6" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="B315" s="5"/>
       <c r="C315" s="6" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="B317" s="5"/>
       <c r="C317" s="6" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
     </row>
     <row r="319" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="B319" s="5"/>
       <c r="C319" s="6" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
     </row>
     <row r="321" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="B321" s="5"/>
       <c r="C321" s="6" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
     </row>
     <row r="323" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="B323" s="5"/>
       <c r="C323" s="6" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
     </row>
     <row r="325" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="B325" s="5"/>
       <c r="C325" s="6" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
     </row>
     <row r="327" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="B327" s="5"/>
       <c r="C327" s="6" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
     </row>
     <row r="329" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="B329" s="5"/>
       <c r="C329" s="6" t="s">
-        <v>385</v>
+        <v>878</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="331" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="B331" s="5"/>
       <c r="C331" s="6" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="B333" s="5"/>
       <c r="C333" s="6" t="s">
-        <v>902</v>
+        <v>385</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
     </row>
     <row r="335" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="B335" s="5"/>
       <c r="C335" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A337" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="B337" s="5"/>
+      <c r="C337" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="D338" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="B339" s="5"/>
+      <c r="C339" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="D339" s="6" t="s">
         <v>908</v>
-      </c>
-      <c r="D335" s="6" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B336" s="9" t="s">
-        <v>910</v>
-      </c>
-      <c r="C336" s="26" t="s">
-        <v>911</v>
-      </c>
-      <c r="D336" s="10"/>
-    </row>
-    <row r="337" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="5"/>
-      <c r="B337" s="7" t="s">
-        <v>912</v>
-      </c>
-      <c r="C337" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="D337" s="8"/>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B338" s="9" t="s">
-        <v>914</v>
-      </c>
-      <c r="C338" s="10" t="s">
-        <v>915</v>
-      </c>
-      <c r="D338" s="10"/>
-    </row>
-    <row r="339" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="5"/>
-      <c r="B339" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="C339" s="25" t="s">
-        <v>917</v>
-      </c>
-      <c r="D339" s="8" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B340" s="9" t="s">
-        <v>916</v>
-      </c>
-      <c r="C340" s="31" t="s">
-        <v>919</v>
-      </c>
-      <c r="D340" s="10" t="s">
-        <v>920</v>
-      </c>
+        <v>909</v>
+      </c>
+      <c r="C340" s="26" t="s">
+        <v>910</v>
+      </c>
+      <c r="D340" s="10"/>
     </row>
     <row r="341" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="5"/>
       <c r="B341" s="7" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="D341" s="8"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B342" s="9" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="C342" s="10" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="D342" s="10"/>
     </row>
-    <row r="343" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="5"/>
       <c r="B343" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="C343" s="25" t="s">
+        <v>916</v>
+      </c>
+      <c r="D343" s="8" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B344" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="C344" s="31" t="s">
+        <v>918</v>
+      </c>
+      <c r="D344" s="10" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="5"/>
+      <c r="B345" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="C345" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="D345" s="8"/>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B346" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="C346" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="D346" s="10"/>
+    </row>
+    <row r="347" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A347" s="5"/>
+      <c r="B347" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="C347" s="8" t="s">
         <v>925</v>
       </c>
-      <c r="C343" s="8" t="s">
+      <c r="D347" s="8"/>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B348" s="9" t="s">
         <v>926</v>
       </c>
-      <c r="D343" s="8"/>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B344" s="9" t="s">
+      <c r="C348" s="10" t="s">
         <v>927</v>
       </c>
-      <c r="C344" s="10" t="s">
-        <v>928</v>
-      </c>
-      <c r="D344" s="10"/>
+      <c r="D348" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7764,26 +8386,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b99410e8-8a6a-49c6-81e8-d5ade3e7c0f2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2192455f-dd39-46c2-a242-0e30632fa188" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010047F5F31BAC119E48A47C88360B4E277D" ma:contentTypeVersion="16" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a594811bfb88eb73205f730fd641aff2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b99410e8-8a6a-49c6-81e8-d5ade3e7c0f2" xmlns:ns3="2192455f-dd39-46c2-a242-0e30632fa188" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="33de6fe5c360230ed021394b19300506" ns2:_="" ns3:_="">
     <xsd:import namespace="b99410e8-8a6a-49c6-81e8-d5ade3e7c0f2"/>
@@ -8026,32 +8628,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{660C4075-FD93-47A1-BC33-7352171551C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C4EFF3F-41DF-478B-9B86-D9FD5A76C4E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2192455f-dd39-46c2-a242-0e30632fa188"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b99410e8-8a6a-49c6-81e8-d5ade3e7c0f2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b99410e8-8a6a-49c6-81e8-d5ade3e7c0f2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2192455f-dd39-46c2-a242-0e30632fa188" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BBC0FCF-CA6B-43B2-840D-46D9480CED33}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8068,4 +8665,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{660C4075-FD93-47A1-BC33-7352171551C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C4EFF3F-41DF-478B-9B86-D9FD5A76C4E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2192455f-dd39-46c2-a242-0e30632fa188"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b99410e8-8a6a-49c6-81e8-d5ade3e7c0f2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Onboarding Documents/Error and warning codes.xlsx
+++ b/Onboarding Documents/Error and warning codes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netcompany-my.sharepoint.com/personal/albt_netcompany_com/Documents/Dokumenter/GitHub/dms-public-private/Onboarding Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albt\OneDrive - Netcompany\Dokumenter\GitHub\dms-public-private\Onboarding Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="8_{5210483F-ED55-4B6D-9C2F-A8B1A45F6BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4DFBEC8-F427-426A-A1FE-63C275E34DE4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E971EA4-E18A-4771-9616-E28F4F81B53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B85A02ED-9ABC-4F63-82FC-39E5924E62E4}"/>
+    <workbookView xWindow="31320" yWindow="3705" windowWidth="21600" windowHeight="11385" xr2:uid="{B85A02ED-9ABC-4F63-82FC-39E5924E62E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="1011">
   <si>
     <t>Error code</t>
   </si>
@@ -3066,6 +3066,9 @@
   </si>
   <si>
     <t>When an IE590 is received and it refers to an IE547 (this is checked outside this rule), then the IE547 must exist in the solution</t>
+  </si>
+  <si>
+    <t>DKW2008</t>
   </si>
 </sst>
 </file>
@@ -3759,7 +3762,7 @@
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3917,9 +3920,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3964,6 +3964,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4323,8 +4347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C124F3A-70A1-4C39-B88D-70E9954F3B3C}">
   <dimension ref="A1:K348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4677,21 +4701,21 @@
       </c>
     </row>
     <row r="38" spans="1:11" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="66" t="s">
         <v>1006</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="68" t="s">
+      <c r="B38" s="66"/>
+      <c r="C38" s="67" t="s">
         <v>1007</v>
       </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
     </row>
     <row r="39" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -4772,7 +4796,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>98</v>
       </c>
@@ -4898,7 +4922,7 @@
       </c>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>127</v>
       </c>
@@ -4912,7 +4936,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>131</v>
       </c>
@@ -5046,7 +5070,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>165</v>
       </c>
@@ -5584,7 +5608,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>295</v>
       </c>
@@ -5610,7 +5634,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>302</v>
       </c>
@@ -5664,7 +5688,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>317</v>
       </c>
@@ -5720,7 +5744,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>333</v>
       </c>
@@ -5906,7 +5930,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>381</v>
       </c>
@@ -5976,7 +6000,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>398</v>
       </c>
@@ -6048,7 +6072,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="150" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>412</v>
       </c>
@@ -6212,7 +6236,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="164" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>449</v>
       </c>
@@ -6249,7 +6273,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="63" t="s">
+      <c r="A167" s="62" t="s">
         <v>985</v>
       </c>
       <c r="B167" s="9"/>
@@ -6273,7 +6297,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="63" t="s">
+      <c r="A169" s="62" t="s">
         <v>987</v>
       </c>
       <c r="B169" s="9"/>
@@ -6297,10 +6321,10 @@
       </c>
     </row>
     <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="62" t="s">
+      <c r="A171" s="61" t="s">
         <v>989</v>
       </c>
-      <c r="B171" s="60"/>
+      <c r="B171" s="59"/>
       <c r="C171" s="34" t="s">
         <v>994</v>
       </c>
@@ -6309,26 +6333,26 @@
       </c>
     </row>
     <row r="172" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A172" s="65" t="s">
+      <c r="A172" s="64" t="s">
         <v>1000</v>
       </c>
       <c r="B172" s="7"/>
-      <c r="C172" s="64" t="s">
+      <c r="C172" s="63" t="s">
         <v>1001</v>
       </c>
-      <c r="D172" s="64" t="s">
+      <c r="D172" s="63" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A173" s="61" t="s">
+      <c r="A173" s="60" t="s">
         <v>1003</v>
       </c>
       <c r="B173" s="9"/>
-      <c r="C173" s="66" t="s">
+      <c r="C173" s="65" t="s">
         <v>1004</v>
       </c>
-      <c r="D173" s="66" t="s">
+      <c r="D173" s="65" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -6390,11 +6414,11 @@
       <c r="A178" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B178" s="32"/>
-      <c r="C178" s="39" t="s">
+      <c r="B178" s="68"/>
+      <c r="C178" s="70" t="s">
         <v>470</v>
       </c>
-      <c r="D178" s="34" t="s">
+      <c r="D178" s="69" t="s">
         <v>471</v>
       </c>
     </row>
@@ -6416,13 +6440,13 @@
       <c r="A180" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="B180" s="32" t="s">
+      <c r="B180" s="68" t="s">
         <v>477</v>
       </c>
-      <c r="C180" s="39" t="s">
+      <c r="C180" s="70" t="s">
         <v>478</v>
       </c>
-      <c r="D180" s="34" t="s">
+      <c r="D180" s="69" t="s">
         <v>479</v>
       </c>
     </row>
@@ -6444,13 +6468,13 @@
       <c r="A182" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="B182" s="38" t="s">
-        <v>977</v>
-      </c>
-      <c r="C182" s="51" t="s">
+      <c r="B182" s="32" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C182" s="69" t="s">
         <v>485</v>
       </c>
-      <c r="D182" s="51" t="s">
+      <c r="D182" s="69" t="s">
         <v>486</v>
       </c>
     </row>
@@ -6472,13 +6496,13 @@
       <c r="A184" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="B184" s="32" t="s">
+      <c r="B184" s="68" t="s">
         <v>492</v>
       </c>
-      <c r="C184" s="34" t="s">
+      <c r="C184" s="69" t="s">
         <v>493</v>
       </c>
-      <c r="D184" s="34" t="s">
+      <c r="D184" s="69" t="s">
         <v>494</v>
       </c>
     </row>
@@ -6500,13 +6524,13 @@
       <c r="A186" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="B186" s="32" t="s">
+      <c r="B186" s="68" t="s">
         <v>500</v>
       </c>
-      <c r="C186" s="37" t="s">
+      <c r="C186" s="71" t="s">
         <v>501</v>
       </c>
-      <c r="D186" s="34" t="s">
+      <c r="D186" s="69" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6514,7 +6538,7 @@
       <c r="A187" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="B187" s="57"/>
+      <c r="B187" s="56"/>
       <c r="C187" s="37" t="s">
         <v>504</v>
       </c>
@@ -6526,11 +6550,11 @@
       <c r="A188" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="B188" s="57"/>
-      <c r="C188" s="37" t="s">
+      <c r="B188" s="72"/>
+      <c r="C188" s="71" t="s">
         <v>507</v>
       </c>
-      <c r="D188" s="34" t="s">
+      <c r="D188" s="69" t="s">
         <v>508</v>
       </c>
     </row>
@@ -6538,7 +6562,7 @@
       <c r="A189" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="B189" s="57"/>
+      <c r="B189" s="56"/>
       <c r="C189" s="37" t="s">
         <v>510</v>
       </c>
@@ -6550,11 +6574,11 @@
       <c r="A190" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="B190" s="57"/>
-      <c r="C190" s="52" t="s">
+      <c r="B190" s="72"/>
+      <c r="C190" s="73" t="s">
         <v>513</v>
       </c>
-      <c r="D190" s="34" t="s">
+      <c r="D190" s="69" t="s">
         <v>514</v>
       </c>
     </row>
@@ -6562,7 +6586,7 @@
       <c r="A191" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B191" s="57"/>
+      <c r="B191" s="56"/>
       <c r="C191" s="52" t="s">
         <v>516</v>
       </c>
@@ -6574,11 +6598,11 @@
       <c r="A192" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="B192" s="57"/>
-      <c r="C192" s="52" t="s">
+      <c r="B192" s="72"/>
+      <c r="C192" s="73" t="s">
         <v>519</v>
       </c>
-      <c r="D192" s="34" t="s">
+      <c r="D192" s="69" t="s">
         <v>520</v>
       </c>
     </row>
@@ -6586,7 +6610,7 @@
       <c r="A193" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B193" s="57" t="s">
+      <c r="B193" s="56" t="s">
         <v>522</v>
       </c>
       <c r="C193" s="36" t="s">
@@ -6600,13 +6624,13 @@
       <c r="A194" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="B194" s="32" t="s">
+      <c r="B194" s="68" t="s">
         <v>526</v>
       </c>
-      <c r="C194" s="36" t="s">
+      <c r="C194" s="74" t="s">
         <v>527</v>
       </c>
-      <c r="D194" s="34" t="s">
+      <c r="D194" s="69" t="s">
         <v>528</v>
       </c>
     </row>
@@ -6626,11 +6650,11 @@
       <c r="A196" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="B196" s="32"/>
-      <c r="C196" s="53" t="s">
+      <c r="B196" s="68"/>
+      <c r="C196" s="75" t="s">
         <v>533</v>
       </c>
-      <c r="D196" s="34" t="s">
+      <c r="D196" s="69" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6650,11 +6674,11 @@
       <c r="A198" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="B198" s="32"/>
-      <c r="C198" s="36" t="s">
+      <c r="B198" s="68"/>
+      <c r="C198" s="74" t="s">
         <v>539</v>
       </c>
-      <c r="D198" s="34" t="s">
+      <c r="D198" s="69" t="s">
         <v>540</v>
       </c>
     </row>
@@ -6725,7 +6749,7 @@
       <c r="B204" s="32" t="s">
         <v>978</v>
       </c>
-      <c r="C204" s="54" t="s">
+      <c r="C204" s="53" t="s">
         <v>970</v>
       </c>
       <c r="D204" s="34" t="s">
@@ -6753,10 +6777,10 @@
       <c r="B206" s="32" t="s">
         <v>980</v>
       </c>
-      <c r="C206" s="55" t="s">
+      <c r="C206" s="54" t="s">
         <v>974</v>
       </c>
-      <c r="D206" s="56" t="s">
+      <c r="D206" s="55" t="s">
         <v>975</v>
       </c>
     </row>
@@ -6890,7 +6914,7 @@
       <c r="A217" s="32" t="s">
         <v>961</v>
       </c>
-      <c r="B217" s="58"/>
+      <c r="B217" s="57"/>
       <c r="C217" s="36" t="s">
         <v>962</v>
       </c>
@@ -6902,7 +6926,7 @@
       <c r="A218" s="30" t="s">
         <v>586</v>
       </c>
-      <c r="B218" s="59"/>
+      <c r="B218" s="58"/>
       <c r="C218" s="41" t="s">
         <v>587</v>
       </c>
@@ -6914,7 +6938,7 @@
       <c r="A219" s="29" t="s">
         <v>589</v>
       </c>
-      <c r="B219" s="59"/>
+      <c r="B219" s="58"/>
       <c r="C219" s="47" t="s">
         <v>590</v>
       </c>
@@ -6926,7 +6950,7 @@
       <c r="A220" s="30" t="s">
         <v>592</v>
       </c>
-      <c r="B220" s="59"/>
+      <c r="B220" s="58"/>
       <c r="C220" s="41" t="s">
         <v>593</v>
       </c>
@@ -6938,7 +6962,7 @@
       <c r="A221" s="29" t="s">
         <v>595</v>
       </c>
-      <c r="B221" s="59"/>
+      <c r="B221" s="58"/>
       <c r="C221" s="41" t="s">
         <v>596</v>
       </c>
@@ -6950,7 +6974,7 @@
       <c r="A222" s="30" t="s">
         <v>598</v>
       </c>
-      <c r="B222" s="59"/>
+      <c r="B222" s="58"/>
       <c r="C222" s="41" t="s">
         <v>599</v>
       </c>
@@ -6962,7 +6986,7 @@
       <c r="A223" s="29" t="s">
         <v>601</v>
       </c>
-      <c r="B223" s="59"/>
+      <c r="B223" s="58"/>
       <c r="C223" s="41" t="s">
         <v>602</v>
       </c>
@@ -6974,7 +6998,7 @@
       <c r="A224" s="30" t="s">
         <v>604</v>
       </c>
-      <c r="B224" s="59"/>
+      <c r="B224" s="58"/>
       <c r="C224" s="47" t="s">
         <v>605</v>
       </c>
@@ -6986,7 +7010,7 @@
       <c r="A225" s="29" t="s">
         <v>607</v>
       </c>
-      <c r="B225" s="57"/>
+      <c r="B225" s="56"/>
       <c r="C225" s="41" t="s">
         <v>608</v>
       </c>
@@ -6998,7 +7022,7 @@
       <c r="A226" s="30" t="s">
         <v>610</v>
       </c>
-      <c r="B226" s="57"/>
+      <c r="B226" s="56"/>
       <c r="C226" s="41" t="s">
         <v>611</v>
       </c>
@@ -7010,7 +7034,7 @@
       <c r="A227" s="29" t="s">
         <v>613</v>
       </c>
-      <c r="B227" s="57"/>
+      <c r="B227" s="56"/>
       <c r="C227" s="47" t="s">
         <v>614</v>
       </c>
@@ -7022,7 +7046,7 @@
       <c r="A228" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="B228" s="57"/>
+      <c r="B228" s="56"/>
       <c r="C228" s="41" t="s">
         <v>617</v>
       </c>
@@ -7034,7 +7058,7 @@
       <c r="A229" s="29" t="s">
         <v>619</v>
       </c>
-      <c r="B229" s="57"/>
+      <c r="B229" s="56"/>
       <c r="C229" s="41" t="s">
         <v>620</v>
       </c>
@@ -7046,7 +7070,7 @@
       <c r="A230" s="30" t="s">
         <v>622</v>
       </c>
-      <c r="B230" s="57"/>
+      <c r="B230" s="56"/>
       <c r="C230" s="41" t="s">
         <v>623</v>
       </c>
@@ -7058,7 +7082,7 @@
       <c r="A231" s="29" t="s">
         <v>625</v>
       </c>
-      <c r="B231" s="57"/>
+      <c r="B231" s="56"/>
       <c r="C231" s="41" t="s">
         <v>626</v>
       </c>
@@ -7070,7 +7094,7 @@
       <c r="A232" s="30" t="s">
         <v>628</v>
       </c>
-      <c r="B232" s="57"/>
+      <c r="B232" s="56"/>
       <c r="C232" s="41" t="s">
         <v>629</v>
       </c>
@@ -7082,7 +7106,7 @@
       <c r="A233" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="B233" s="57"/>
+      <c r="B233" s="56"/>
       <c r="C233" s="39" t="s">
         <v>632</v>
       </c>
@@ -7094,7 +7118,7 @@
       <c r="A234" s="30" t="s">
         <v>634</v>
       </c>
-      <c r="B234" s="57"/>
+      <c r="B234" s="56"/>
       <c r="C234" s="41" t="s">
         <v>635</v>
       </c>
@@ -7106,7 +7130,7 @@
       <c r="A235" s="29" t="s">
         <v>637</v>
       </c>
-      <c r="B235" s="57"/>
+      <c r="B235" s="56"/>
       <c r="C235" s="41" t="s">
         <v>638</v>
       </c>
@@ -7118,7 +7142,7 @@
       <c r="A236" s="30" t="s">
         <v>640</v>
       </c>
-      <c r="B236" s="57"/>
+      <c r="B236" s="56"/>
       <c r="C236" s="39" t="s">
         <v>641</v>
       </c>
@@ -7130,7 +7154,7 @@
       <c r="A237" s="29" t="s">
         <v>643</v>
       </c>
-      <c r="B237" s="57"/>
+      <c r="B237" s="56"/>
       <c r="C237" s="39" t="s">
         <v>644</v>
       </c>
@@ -7142,7 +7166,7 @@
       <c r="A238" s="30" t="s">
         <v>646</v>
       </c>
-      <c r="B238" s="57"/>
+      <c r="B238" s="56"/>
       <c r="C238" s="39" t="s">
         <v>647</v>
       </c>
@@ -7154,7 +7178,7 @@
       <c r="A239" s="29" t="s">
         <v>649</v>
       </c>
-      <c r="B239" s="57"/>
+      <c r="B239" s="56"/>
       <c r="C239" s="39" t="s">
         <v>650</v>
       </c>
@@ -7166,7 +7190,7 @@
       <c r="A240" s="30" t="s">
         <v>652</v>
       </c>
-      <c r="B240" s="57"/>
+      <c r="B240" s="56"/>
       <c r="C240" s="44" t="s">
         <v>653</v>
       </c>
@@ -7178,7 +7202,7 @@
       <c r="A241" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="B241" s="57"/>
+      <c r="B241" s="56"/>
       <c r="C241" s="39" t="s">
         <v>656</v>
       </c>
@@ -8386,6 +8410,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010047F5F31BAC119E48A47C88360B4E277D" ma:contentTypeVersion="16" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a594811bfb88eb73205f730fd641aff2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b99410e8-8a6a-49c6-81e8-d5ade3e7c0f2" xmlns:ns3="2192455f-dd39-46c2-a242-0e30632fa188" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="33de6fe5c360230ed021394b19300506" ns2:_="" ns3:_="">
     <xsd:import namespace="b99410e8-8a6a-49c6-81e8-d5ade3e7c0f2"/>
@@ -8628,15 +8661,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8649,6 +8673,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{660C4075-FD93-47A1-BC33-7352171551C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BBC0FCF-CA6B-43B2-840D-46D9480CED33}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8663,14 +8695,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{660C4075-FD93-47A1-BC33-7352171551C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
